--- a/src/test/resources/RegisterData.xlsx
+++ b/src/test/resources/RegisterData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28417"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BAC34BB-1E53-4F1D-A39F-D0C368276BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AA211F8-315D-45B5-8042-A161E8049142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="366">
   <si>
     <t>First Name</t>
   </si>
@@ -87,46 +87,1048 @@
     <t>7686718388</t>
   </si>
   <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>/src/test/resources/HelloText</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>NCR</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>james@gmail.com</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
     <t>Computer Science,Hindi,physics</t>
   </si>
   <si>
-    <t>Sports</t>
-  </si>
-  <si>
-    <t>/src/test/resources/HelloText</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>NCR</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Positive</t>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>maria.garcia@gmail.com</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>1234567899</t>
+  </si>
+  <si>
+    <t>124 Elm Street</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>bob.brown@gmail.com</t>
+  </si>
+  <si>
+    <t>5551234567</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>789 Pine Rd</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Agra</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>alice.green@email.com</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Sports, Music</t>
+  </si>
+  <si>
+    <t>321 Birch Blvd</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Panipat</t>
+  </si>
+  <si>
+    <t>Positive count</t>
+  </si>
+  <si>
+    <t>Negative count</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>tom.blue@email.com</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Reading, Music</t>
+  </si>
+  <si>
+    <t>321 Pine Blvd</t>
+  </si>
+  <si>
+    <t>Lucknow</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>michael.yellow@email.com</t>
+  </si>
+  <si>
+    <t>1234678901</t>
+  </si>
+  <si>
+    <t>234 Oak Ave</t>
+  </si>
+  <si>
+    <t>Karnal</t>
+  </si>
+  <si>
+    <t>Kavya</t>
+  </si>
+  <si>
+    <t>Rao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kavya.rao@email.com	</t>
+  </si>
+  <si>
+    <t>8888777666</t>
+  </si>
+  <si>
+    <t>34, Lajpat Nagar</t>
+  </si>
+  <si>
+    <t>Samantha</t>
+  </si>
+  <si>
+    <t>samantha.brown@email.com</t>
+  </si>
+  <si>
+    <t>9876543211</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Aarav</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>aarav.sharma@email.com</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>Math, Physics</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>jessica.red@email.com</t>
+  </si>
+  <si>
+    <t>9876543216</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>542 Oak Rd</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>543 Oak Rd</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>max.black@email.com</t>
+  </si>
+  <si>
+    <t>12345678911</t>
+  </si>
+  <si>
+    <t>987 Maple Ave</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>aarav.sharma@email</t>
+  </si>
+  <si>
+    <t>123, Sector 12, Dwarka</t>
+  </si>
+  <si>
+    <t>Shweta</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>shweta.singh@email.com</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>45, Main Road, Jaiselmer</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Jaiselmer</t>
+  </si>
+  <si>
+    <t>Rina</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>rina.patel@email.com</t>
+  </si>
+  <si>
+    <t>45, Main Road</t>
+  </si>
+  <si>
+    <t>Vikas</t>
+  </si>
+  <si>
+    <t>Yadav</t>
+  </si>
+  <si>
+    <t>vikas.yadav@email.com</t>
+  </si>
+  <si>
+    <t>Kiran</t>
+  </si>
+  <si>
+    <t>kiran.singh@email.com</t>
+  </si>
+  <si>
+    <t>Sanjay</t>
+  </si>
+  <si>
+    <t>Joshi</t>
+  </si>
+  <si>
+    <t>sanjay.joshi@email.com</t>
+  </si>
+  <si>
+    <t>Mitali</t>
+  </si>
+  <si>
+    <t>mitali.rao@email.com</t>
+  </si>
+  <si>
+    <t>Monika</t>
+  </si>
+  <si>
+    <t>Verma</t>
+  </si>
+  <si>
+    <t>monika.verma@email.com</t>
+  </si>
+  <si>
+    <t>1234567902</t>
+  </si>
+  <si>
+    <t>Dhruv</t>
+  </si>
+  <si>
+    <t>Kapoor</t>
+  </si>
+  <si>
+    <t>dhruv.kapoor@email.com</t>
+  </si>
+  <si>
+    <t>1234567903</t>
+  </si>
+  <si>
+    <t>Rajni</t>
+  </si>
+  <si>
+    <t>rajni.sharma@email.com</t>
+  </si>
+  <si>
+    <t>1234567904</t>
+  </si>
+  <si>
+    <t>Sanjeev</t>
+  </si>
+  <si>
+    <t>Tiwari</t>
+  </si>
+  <si>
+    <t>sanjeev.tiwari@email.com</t>
+  </si>
+  <si>
+    <t>1234567905</t>
+  </si>
+  <si>
+    <t>Karan</t>
+  </si>
+  <si>
+    <t>Mishra</t>
+  </si>
+  <si>
+    <t>karan.mishra@email.com</t>
+  </si>
+  <si>
+    <t>1234567906</t>
+  </si>
+  <si>
+    <t>Sushil</t>
+  </si>
+  <si>
+    <t>sushil.yadav@email.com</t>
+  </si>
+  <si>
+    <t>1234567907</t>
+  </si>
+  <si>
+    <t>Megha</t>
+  </si>
+  <si>
+    <t>megha.kapoor@email.com</t>
+  </si>
+  <si>
+    <t>1234567908</t>
+  </si>
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>Mehra</t>
+  </si>
+  <si>
+    <t>aman.mehra@email.com</t>
+  </si>
+  <si>
+    <t>1234567909</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>Deshmukh</t>
+  </si>
+  <si>
+    <t>arjun.deshmukh@email.com</t>
+  </si>
+  <si>
+    <t>1234567911</t>
+  </si>
+  <si>
+    <t>Rajeev</t>
+  </si>
+  <si>
+    <t>Soni</t>
+  </si>
+  <si>
+    <t>rajeev.soni@email.com</t>
+  </si>
+  <si>
+    <t>1234567912</t>
+  </si>
+  <si>
+    <t>Sonal</t>
+  </si>
+  <si>
+    <t>sonal.verma@email.com</t>
+  </si>
+  <si>
+    <t>1234567913</t>
+  </si>
+  <si>
+    <t>Tanya</t>
+  </si>
+  <si>
+    <t>tanya.joshi@email.com</t>
+  </si>
+  <si>
+    <t>1234567914</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>ramesh.patel@email.com</t>
+  </si>
+  <si>
+    <t>1234567915</t>
+  </si>
+  <si>
+    <t>Hitesh</t>
+  </si>
+  <si>
+    <t>Chawla</t>
+  </si>
+  <si>
+    <t>hitesh.chawla@email.com</t>
+  </si>
+  <si>
+    <t>1234567916</t>
+  </si>
+  <si>
+    <t>Gupta</t>
+  </si>
+  <si>
+    <t>rina.gupta@email.com</t>
+  </si>
+  <si>
+    <t>1234567917</t>
+  </si>
+  <si>
+    <t>Radhika</t>
+  </si>
+  <si>
+    <t>radhika.kapoor@email.com</t>
+  </si>
+  <si>
+    <t>1234567920</t>
+  </si>
+  <si>
+    <t>Vikash</t>
+  </si>
+  <si>
+    <t>Bhatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vikash.bhatia@email.com	</t>
+  </si>
+  <si>
+    <t>1234567921</t>
+  </si>
+  <si>
+    <t>Meera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meera.mehra@email.com	</t>
+  </si>
+  <si>
+    <t>1234567922</t>
+  </si>
+  <si>
+    <t>Mehul</t>
+  </si>
+  <si>
+    <t>mehul.yadav@email.com</t>
+  </si>
+  <si>
+    <t>1234567923</t>
+  </si>
+  <si>
+    <t>Sheetal</t>
+  </si>
+  <si>
+    <t>sheetal.gupta@email.com</t>
+  </si>
+  <si>
+    <t>1234567924</t>
+  </si>
+  <si>
+    <t>Ankit</t>
+  </si>
+  <si>
+    <t>Jain</t>
+  </si>
+  <si>
+    <t>ankit.jain@email.com</t>
+  </si>
+  <si>
+    <t>1234567925</t>
+  </si>
+  <si>
+    <t>Shivani</t>
+  </si>
+  <si>
+    <t>shivani.mishra@email.com</t>
+  </si>
+  <si>
+    <t>1234567926</t>
+  </si>
+  <si>
+    <t>Gaurav</t>
+  </si>
+  <si>
+    <t>gaurav.chawla@email.com</t>
+  </si>
+  <si>
+    <t>1234567927</t>
+  </si>
+  <si>
+    <t>Tanvi</t>
+  </si>
+  <si>
+    <t>tanvi.kapoor@email.com</t>
+  </si>
+  <si>
+    <t>1234567928</t>
+  </si>
+  <si>
+    <t>Arvind</t>
+  </si>
+  <si>
+    <t>arvind.patel@email.com</t>
+  </si>
+  <si>
+    <t>1234567932</t>
+  </si>
+  <si>
+    <t>1234567933</t>
+  </si>
+  <si>
+    <t>1234567934</t>
+  </si>
+  <si>
+    <t>1234567935</t>
+  </si>
+  <si>
+    <t>1234567936</t>
+  </si>
+  <si>
+    <t>1234567937</t>
+  </si>
+  <si>
+    <t>1234567938</t>
+  </si>
+  <si>
+    <t>1234567939</t>
+  </si>
+  <si>
+    <t>1234567940</t>
+  </si>
+  <si>
+    <t>1234567941</t>
+  </si>
+  <si>
+    <t>1234567942</t>
+  </si>
+  <si>
+    <t>1234567943</t>
+  </si>
+  <si>
+    <t>1234567944</t>
+  </si>
+  <si>
+    <t>1234567945</t>
+  </si>
+  <si>
+    <t>1234567946</t>
+  </si>
+  <si>
+    <t>1234567947</t>
+  </si>
+  <si>
+    <t>1234567948</t>
+  </si>
+  <si>
+    <t>1234567949</t>
+  </si>
+  <si>
+    <t>1234567950</t>
+  </si>
+  <si>
+    <t>1234567951</t>
+  </si>
+  <si>
+    <t>1234567953</t>
+  </si>
+  <si>
+    <t>1234567954</t>
+  </si>
+  <si>
+    <t>1234567955</t>
+  </si>
+  <si>
+    <t>1234567956</t>
+  </si>
+  <si>
+    <t>1234567957</t>
+  </si>
+  <si>
+    <t>1234567958</t>
+  </si>
+  <si>
+    <t>1234567959</t>
+  </si>
+  <si>
+    <t>1234567960</t>
+  </si>
+  <si>
+    <t>1234567961</t>
+  </si>
+  <si>
+    <t>1234567962</t>
+  </si>
+  <si>
+    <t>1234567963</t>
+  </si>
+  <si>
+    <t>1234567964</t>
+  </si>
+  <si>
+    <t>1234567965</t>
+  </si>
+  <si>
+    <t>1234567966</t>
+  </si>
+  <si>
+    <t>1234567967</t>
+  </si>
+  <si>
+    <t>1234567968</t>
+  </si>
+  <si>
+    <t>1234567969</t>
+  </si>
+  <si>
+    <t>1234567970</t>
+  </si>
+  <si>
+    <t>1234567971</t>
+  </si>
+  <si>
+    <t>1234567972</t>
+  </si>
+  <si>
+    <t>1234567973</t>
+  </si>
+  <si>
+    <t>1234567974</t>
+  </si>
+  <si>
+    <t>1234567980</t>
+  </si>
+  <si>
+    <t>1234567981</t>
+  </si>
+  <si>
+    <t>1234567982</t>
+  </si>
+  <si>
+    <t>1234567983</t>
+  </si>
+  <si>
+    <t>1234567984</t>
+  </si>
+  <si>
+    <t>1234567985</t>
+  </si>
+  <si>
+    <t>1234567986</t>
+  </si>
+  <si>
+    <t>1234567987</t>
+  </si>
+  <si>
+    <t>1234567988</t>
+  </si>
+  <si>
+    <t>1234567989</t>
+  </si>
+  <si>
+    <t>1234567990</t>
+  </si>
+  <si>
+    <t>1234567991</t>
+  </si>
+  <si>
+    <t>1234567992</t>
+  </si>
+  <si>
+    <t>1234567993</t>
+  </si>
+  <si>
+    <t>1234567994</t>
+  </si>
+  <si>
+    <t>1234567995</t>
+  </si>
+  <si>
+    <t>1234567996</t>
+  </si>
+  <si>
+    <t>1234567997</t>
+  </si>
+  <si>
+    <t>1234567998</t>
+  </si>
+  <si>
+    <t>1234567999</t>
+  </si>
+  <si>
+    <t>1234568000</t>
+  </si>
+  <si>
+    <t>1234568001</t>
+  </si>
+  <si>
+    <t>1234568002</t>
+  </si>
+  <si>
+    <t>1234568003</t>
+  </si>
+  <si>
+    <t>1234568004</t>
+  </si>
+  <si>
+    <t>1234568005</t>
+  </si>
+  <si>
+    <t>1234568006</t>
+  </si>
+  <si>
+    <t>1234568007</t>
+  </si>
+  <si>
+    <t>1234568008</t>
+  </si>
+  <si>
+    <t>1234568009</t>
+  </si>
+  <si>
+    <t>1234568010</t>
+  </si>
+  <si>
+    <t>1234568011</t>
+  </si>
+  <si>
+    <t>1234568012</t>
+  </si>
+  <si>
+    <t>1234568013</t>
+  </si>
+  <si>
+    <t>1234568014</t>
+  </si>
+  <si>
+    <t>1234568015</t>
+  </si>
+  <si>
+    <t>1234568016</t>
+  </si>
+  <si>
+    <t>1234568017</t>
+  </si>
+  <si>
+    <t>1234568018</t>
+  </si>
+  <si>
+    <t>1234568019</t>
+  </si>
+  <si>
+    <t>1234568020</t>
+  </si>
+  <si>
+    <t>1234568021</t>
+  </si>
+  <si>
+    <t>1234568022</t>
+  </si>
+  <si>
+    <t>1234568023</t>
+  </si>
+  <si>
+    <t>1234568024</t>
+  </si>
+  <si>
+    <t>1234568025</t>
+  </si>
+  <si>
+    <t>1234568026</t>
+  </si>
+  <si>
+    <t>1234568027</t>
+  </si>
+  <si>
+    <t>1234568028</t>
+  </si>
+  <si>
+    <t>1234568029</t>
+  </si>
+  <si>
+    <t>1234568030</t>
+  </si>
+  <si>
+    <t>1234568031</t>
+  </si>
+  <si>
+    <t>1234568032</t>
+  </si>
+  <si>
+    <t>1234568033</t>
+  </si>
+  <si>
+    <t>1234568034</t>
+  </si>
+  <si>
+    <t>1234568035</t>
+  </si>
+  <si>
+    <t>1234568036</t>
+  </si>
+  <si>
+    <t>1234568037</t>
+  </si>
+  <si>
+    <t>1234568058</t>
+  </si>
+  <si>
+    <t>1234568059</t>
+  </si>
+  <si>
+    <t>1234568066</t>
+  </si>
+  <si>
+    <t>1234568067</t>
+  </si>
+  <si>
+    <t>1234568068</t>
+  </si>
+  <si>
+    <t>1234568069</t>
   </si>
   <si>
     <t>James</t>
   </si>
   <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>james@gmail.com</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
     <t>Garcia</t>
+  </si>
+  <si>
+    <t>john.doe@email.com</t>
+  </si>
+  <si>
+    <t>12346</t>
+  </si>
+  <si>
+    <t>544 Oak Rd</t>
+  </si>
+  <si>
+    <t>12347</t>
+  </si>
+  <si>
+    <t>545 Oak Rd</t>
+  </si>
+  <si>
+    <t>12348</t>
+  </si>
+  <si>
+    <t>546 Oak Rd</t>
+  </si>
+  <si>
+    <t>12349</t>
+  </si>
+  <si>
+    <t>547 Oak Rd</t>
+  </si>
+  <si>
+    <t>12350</t>
+  </si>
+  <si>
+    <t>548 Oak Rd</t>
+  </si>
+  <si>
+    <t>12351</t>
+  </si>
+  <si>
+    <t>549 Oak Rd</t>
+  </si>
+  <si>
+    <t>12352</t>
+  </si>
+  <si>
+    <t>550 Oak Rd</t>
+  </si>
+  <si>
+    <t>12353</t>
+  </si>
+  <si>
+    <t>551 Oak Rd</t>
+  </si>
+  <si>
+    <t>12354</t>
+  </si>
+  <si>
+    <t>552 Oak Rd</t>
+  </si>
+  <si>
+    <t>12355</t>
+  </si>
+  <si>
+    <t>553 Oak Rd</t>
+  </si>
+  <si>
+    <t>12356</t>
+  </si>
+  <si>
+    <t>554 Oak Rd</t>
+  </si>
+  <si>
+    <t>12357</t>
+  </si>
+  <si>
+    <t>555 Oak Rd</t>
+  </si>
+  <si>
+    <t>12358</t>
+  </si>
+  <si>
+    <t>556 Oak Rd</t>
+  </si>
+  <si>
+    <t>12359</t>
+  </si>
+  <si>
+    <t>557 Oak Rd</t>
+  </si>
+  <si>
+    <t>12360</t>
+  </si>
+  <si>
+    <t>558 Oak Rd</t>
+  </si>
+  <si>
+    <t>12361</t>
+  </si>
+  <si>
+    <t>559 Oak Rd</t>
+  </si>
+  <si>
+    <t>12362</t>
+  </si>
+  <si>
+    <t>560 Oak Rd</t>
+  </si>
+  <si>
+    <t>12363</t>
+  </si>
+  <si>
+    <t>561 Oak Rd</t>
+  </si>
+  <si>
+    <t>12364</t>
+  </si>
+  <si>
+    <t>562 Oak Rd</t>
+  </si>
+  <si>
+    <t>12365</t>
+  </si>
+  <si>
+    <t>563 Oak Rd</t>
+  </si>
+  <si>
+    <t>12366</t>
+  </si>
+  <si>
+    <t>564 Oak Rd</t>
+  </si>
+  <si>
+    <t>12367</t>
+  </si>
+  <si>
+    <t>565 Oak Rd</t>
+  </si>
+  <si>
+    <t>12368</t>
+  </si>
+  <si>
+    <t>566 Oak Rd</t>
+  </si>
+  <si>
+    <t>12369</t>
+  </si>
+  <si>
+    <t>567 Oak Rd</t>
+  </si>
+  <si>
+    <t>12370</t>
+  </si>
+  <si>
+    <t>568 Oak Rd</t>
+  </si>
+  <si>
+    <t>12371</t>
+  </si>
+  <si>
+    <t>569 Oak Rd</t>
+  </si>
+  <si>
+    <t>12372</t>
+  </si>
+  <si>
+    <t>570 Oak Rd</t>
   </si>
 </sst>
 </file>
@@ -157,7 +1159,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +1170,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDAF2D0"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -184,7 +1192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -199,6 +1207,8 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -534,28 +1544,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:R202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:J4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30.75">
+    <row r="1" spans="1:18" ht="30.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +1610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="76.5">
+    <row r="2" spans="1:18" ht="45.75">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -637,25 +1651,25 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="76.5">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:18" ht="76.5">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F3" s="6">
         <v>37395</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>19</v>
@@ -676,21 +1690,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="76.5">
+    <row r="4" spans="1:18" ht="45.75">
       <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="6">
         <v>37396</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>19</v>
@@ -708,6 +1725,8079 @@
         <v>23</v>
       </c>
       <c r="M4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="45.75">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="10">
+        <v>32874</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="45.75">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="10">
+        <v>31366</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="45.75">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="10">
+        <v>34778</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="45.75">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8">
+        <f>COUNTIF(M:M,"Positive")</f>
+        <v>156</v>
+      </c>
+      <c r="R8">
+        <f>COUNTIF(M:M,"Negative")</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="45.75">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="10">
+        <v>34656</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="45.75">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="10">
+        <v>35165</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="10">
+        <v>36061</v>
+      </c>
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="45.75">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="10">
+        <v>34824</v>
+      </c>
+      <c r="G12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="45.75">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="10">
+        <v>35837</v>
+      </c>
+      <c r="G13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="45.75">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="10">
+        <v>35837</v>
+      </c>
+      <c r="G14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="45.75">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="10">
+        <v>35838</v>
+      </c>
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="45.75">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="10">
+        <v>29585</v>
+      </c>
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="45.75">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="10">
+        <v>32874</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="45.75">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="10">
+        <v>35117</v>
+      </c>
+      <c r="G18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" t="s">
+        <v>104</v>
+      </c>
+      <c r="M18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="45.75">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="10">
+        <v>33086</v>
+      </c>
+      <c r="G19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" t="s">
+        <v>103</v>
+      </c>
+      <c r="L19" t="s">
+        <v>104</v>
+      </c>
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="45.75">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="10">
+        <v>33087</v>
+      </c>
+      <c r="G20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" t="s">
+        <v>104</v>
+      </c>
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="45.75">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="10">
+        <v>33088</v>
+      </c>
+      <c r="G21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" t="s">
+        <v>103</v>
+      </c>
+      <c r="L21" t="s">
+        <v>104</v>
+      </c>
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="45.75">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="10">
+        <v>33089</v>
+      </c>
+      <c r="G22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" t="s">
+        <v>104</v>
+      </c>
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="45.75">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="10">
+        <v>33090</v>
+      </c>
+      <c r="G23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" t="s">
+        <v>103</v>
+      </c>
+      <c r="L23" t="s">
+        <v>104</v>
+      </c>
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="45.75">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="10">
+        <v>33091</v>
+      </c>
+      <c r="G24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" t="s">
+        <v>103</v>
+      </c>
+      <c r="L24" t="s">
+        <v>104</v>
+      </c>
+      <c r="M24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="45.75">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="10">
+        <v>33092</v>
+      </c>
+      <c r="G25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" t="s">
+        <v>103</v>
+      </c>
+      <c r="L25" t="s">
+        <v>104</v>
+      </c>
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="45.75">
+      <c r="A26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="10">
+        <v>33093</v>
+      </c>
+      <c r="G26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>108</v>
+      </c>
+      <c r="K26" t="s">
+        <v>103</v>
+      </c>
+      <c r="L26" t="s">
+        <v>104</v>
+      </c>
+      <c r="M26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="45.75">
+      <c r="A27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="10">
+        <v>33094</v>
+      </c>
+      <c r="G27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>108</v>
+      </c>
+      <c r="K27" t="s">
+        <v>103</v>
+      </c>
+      <c r="L27" t="s">
+        <v>104</v>
+      </c>
+      <c r="M27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="45.75">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="10">
+        <v>33095</v>
+      </c>
+      <c r="G28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
+        <v>108</v>
+      </c>
+      <c r="K28" t="s">
+        <v>103</v>
+      </c>
+      <c r="L28" t="s">
+        <v>104</v>
+      </c>
+      <c r="M28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="45.75">
+      <c r="A29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="10">
+        <v>33096</v>
+      </c>
+      <c r="G29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>108</v>
+      </c>
+      <c r="K29" t="s">
+        <v>103</v>
+      </c>
+      <c r="L29" t="s">
+        <v>104</v>
+      </c>
+      <c r="M29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="45.75">
+      <c r="A30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="10">
+        <v>33097</v>
+      </c>
+      <c r="G30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" t="s">
+        <v>108</v>
+      </c>
+      <c r="K30" t="s">
+        <v>103</v>
+      </c>
+      <c r="L30" t="s">
+        <v>104</v>
+      </c>
+      <c r="M30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="45.75">
+      <c r="A31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" s="10">
+        <v>33098</v>
+      </c>
+      <c r="G31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
+        <v>108</v>
+      </c>
+      <c r="K31" t="s">
+        <v>103</v>
+      </c>
+      <c r="L31" t="s">
+        <v>104</v>
+      </c>
+      <c r="M31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="45.75">
+      <c r="A32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" s="10">
+        <v>33100</v>
+      </c>
+      <c r="G32" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s">
+        <v>108</v>
+      </c>
+      <c r="K32" t="s">
+        <v>103</v>
+      </c>
+      <c r="L32" t="s">
+        <v>104</v>
+      </c>
+      <c r="M32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="45.75">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" s="10">
+        <v>33101</v>
+      </c>
+      <c r="G33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
+        <v>108</v>
+      </c>
+      <c r="K33" t="s">
+        <v>103</v>
+      </c>
+      <c r="L33" t="s">
+        <v>104</v>
+      </c>
+      <c r="M33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="45.75">
+      <c r="A34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F34" s="10">
+        <v>33102</v>
+      </c>
+      <c r="G34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
+        <v>108</v>
+      </c>
+      <c r="K34" t="s">
+        <v>103</v>
+      </c>
+      <c r="L34" t="s">
+        <v>104</v>
+      </c>
+      <c r="M34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="45.75">
+      <c r="A35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="10">
+        <v>33103</v>
+      </c>
+      <c r="G35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
+        <v>108</v>
+      </c>
+      <c r="K35" t="s">
+        <v>103</v>
+      </c>
+      <c r="L35" t="s">
+        <v>104</v>
+      </c>
+      <c r="M35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="45.75">
+      <c r="A36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" s="10">
+        <v>33104</v>
+      </c>
+      <c r="G36" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s">
+        <v>108</v>
+      </c>
+      <c r="K36" t="s">
+        <v>103</v>
+      </c>
+      <c r="L36" t="s">
+        <v>104</v>
+      </c>
+      <c r="M36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="45.75">
+      <c r="A37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F37" s="10">
+        <v>33105</v>
+      </c>
+      <c r="G37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>108</v>
+      </c>
+      <c r="K37" t="s">
+        <v>103</v>
+      </c>
+      <c r="L37" t="s">
+        <v>104</v>
+      </c>
+      <c r="M37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="45.75">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="10">
+        <v>33106</v>
+      </c>
+      <c r="G38" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" t="s">
+        <v>108</v>
+      </c>
+      <c r="K38" t="s">
+        <v>103</v>
+      </c>
+      <c r="L38" t="s">
+        <v>104</v>
+      </c>
+      <c r="M38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="45.75">
+      <c r="A39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="10">
+        <v>33109</v>
+      </c>
+      <c r="G39" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
+        <v>108</v>
+      </c>
+      <c r="K39" t="s">
+        <v>103</v>
+      </c>
+      <c r="L39" t="s">
+        <v>104</v>
+      </c>
+      <c r="M39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="45.75">
+      <c r="A40" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="10">
+        <v>33110</v>
+      </c>
+      <c r="G40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s">
+        <v>108</v>
+      </c>
+      <c r="K40" t="s">
+        <v>103</v>
+      </c>
+      <c r="L40" t="s">
+        <v>104</v>
+      </c>
+      <c r="M40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="45.75">
+      <c r="A41" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" s="10">
+        <v>33111</v>
+      </c>
+      <c r="G41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s">
+        <v>108</v>
+      </c>
+      <c r="K41" t="s">
+        <v>103</v>
+      </c>
+      <c r="L41" t="s">
+        <v>104</v>
+      </c>
+      <c r="M41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="45.75">
+      <c r="A42" t="s">
+        <v>182</v>
+      </c>
+      <c r="B42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F42" s="10">
+        <v>33112</v>
+      </c>
+      <c r="G42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s">
+        <v>108</v>
+      </c>
+      <c r="K42" t="s">
+        <v>103</v>
+      </c>
+      <c r="L42" t="s">
+        <v>104</v>
+      </c>
+      <c r="M42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="45.75">
+      <c r="A43" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F43" s="10">
+        <v>33113</v>
+      </c>
+      <c r="G43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s">
+        <v>108</v>
+      </c>
+      <c r="K43" t="s">
+        <v>103</v>
+      </c>
+      <c r="L43" t="s">
+        <v>104</v>
+      </c>
+      <c r="M43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="45.75">
+      <c r="A44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F44" s="10">
+        <v>33114</v>
+      </c>
+      <c r="G44" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" t="s">
+        <v>108</v>
+      </c>
+      <c r="K44" t="s">
+        <v>103</v>
+      </c>
+      <c r="L44" t="s">
+        <v>104</v>
+      </c>
+      <c r="M44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="45.75">
+      <c r="A45" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F45" s="10">
+        <v>33115</v>
+      </c>
+      <c r="G45" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s">
+        <v>108</v>
+      </c>
+      <c r="K45" t="s">
+        <v>103</v>
+      </c>
+      <c r="L45" t="s">
+        <v>104</v>
+      </c>
+      <c r="M45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="45.75">
+      <c r="A46" t="s">
+        <v>195</v>
+      </c>
+      <c r="B46" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F46" s="10">
+        <v>33116</v>
+      </c>
+      <c r="G46" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s">
+        <v>108</v>
+      </c>
+      <c r="K46" t="s">
+        <v>103</v>
+      </c>
+      <c r="L46" t="s">
+        <v>104</v>
+      </c>
+      <c r="M46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="45.75">
+      <c r="A47" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F47" s="10">
+        <v>33117</v>
+      </c>
+      <c r="G47" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" t="s">
+        <v>108</v>
+      </c>
+      <c r="K47" t="s">
+        <v>103</v>
+      </c>
+      <c r="L47" t="s">
+        <v>104</v>
+      </c>
+      <c r="M47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="45.75">
+      <c r="A48" t="s">
+        <v>201</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F48" s="10">
+        <v>33121</v>
+      </c>
+      <c r="G48" t="s">
+        <v>76</v>
+      </c>
+      <c r="H48" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s">
+        <v>108</v>
+      </c>
+      <c r="K48" t="s">
+        <v>103</v>
+      </c>
+      <c r="L48" t="s">
+        <v>104</v>
+      </c>
+      <c r="M48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="45.75">
+      <c r="A49" t="s">
+        <v>201</v>
+      </c>
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F49" s="10">
+        <v>33122</v>
+      </c>
+      <c r="G49" t="s">
+        <v>76</v>
+      </c>
+      <c r="H49" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" t="s">
+        <v>108</v>
+      </c>
+      <c r="K49" t="s">
+        <v>103</v>
+      </c>
+      <c r="L49" t="s">
+        <v>104</v>
+      </c>
+      <c r="M49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="45.75">
+      <c r="A50" t="s">
+        <v>201</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F50" s="10">
+        <v>33123</v>
+      </c>
+      <c r="G50" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s">
+        <v>108</v>
+      </c>
+      <c r="K50" t="s">
+        <v>103</v>
+      </c>
+      <c r="L50" t="s">
+        <v>104</v>
+      </c>
+      <c r="M50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="45.75">
+      <c r="A51" t="s">
+        <v>201</v>
+      </c>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F51" s="10">
+        <v>33124</v>
+      </c>
+      <c r="G51" t="s">
+        <v>76</v>
+      </c>
+      <c r="H51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s">
+        <v>108</v>
+      </c>
+      <c r="K51" t="s">
+        <v>103</v>
+      </c>
+      <c r="L51" t="s">
+        <v>104</v>
+      </c>
+      <c r="M51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="45.75">
+      <c r="A52" t="s">
+        <v>201</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F52" s="10">
+        <v>33125</v>
+      </c>
+      <c r="G52" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" t="s">
+        <v>108</v>
+      </c>
+      <c r="K52" t="s">
+        <v>103</v>
+      </c>
+      <c r="L52" t="s">
+        <v>104</v>
+      </c>
+      <c r="M52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="45.75">
+      <c r="A53" t="s">
+        <v>201</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F53" s="10">
+        <v>33126</v>
+      </c>
+      <c r="G53" t="s">
+        <v>76</v>
+      </c>
+      <c r="H53" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" t="s">
+        <v>108</v>
+      </c>
+      <c r="K53" t="s">
+        <v>103</v>
+      </c>
+      <c r="L53" t="s">
+        <v>104</v>
+      </c>
+      <c r="M53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="45.75">
+      <c r="A54" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F54" s="10">
+        <v>33127</v>
+      </c>
+      <c r="G54" t="s">
+        <v>76</v>
+      </c>
+      <c r="H54" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s">
+        <v>108</v>
+      </c>
+      <c r="K54" t="s">
+        <v>103</v>
+      </c>
+      <c r="L54" t="s">
+        <v>104</v>
+      </c>
+      <c r="M54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="45.75">
+      <c r="A55" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F55" s="10">
+        <v>33128</v>
+      </c>
+      <c r="G55" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s">
+        <v>108</v>
+      </c>
+      <c r="K55" t="s">
+        <v>103</v>
+      </c>
+      <c r="L55" t="s">
+        <v>104</v>
+      </c>
+      <c r="M55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="45.75">
+      <c r="A56" t="s">
+        <v>201</v>
+      </c>
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F56" s="10">
+        <v>33129</v>
+      </c>
+      <c r="G56" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s">
+        <v>108</v>
+      </c>
+      <c r="K56" t="s">
+        <v>103</v>
+      </c>
+      <c r="L56" t="s">
+        <v>104</v>
+      </c>
+      <c r="M56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="45.75">
+      <c r="A57" t="s">
+        <v>201</v>
+      </c>
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F57" s="10">
+        <v>33130</v>
+      </c>
+      <c r="G57" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s">
+        <v>108</v>
+      </c>
+      <c r="K57" t="s">
+        <v>103</v>
+      </c>
+      <c r="L57" t="s">
+        <v>104</v>
+      </c>
+      <c r="M57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="45.75">
+      <c r="A58" t="s">
+        <v>201</v>
+      </c>
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F58" s="10">
+        <v>33131</v>
+      </c>
+      <c r="G58" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K58" t="s">
+        <v>103</v>
+      </c>
+      <c r="L58" t="s">
+        <v>104</v>
+      </c>
+      <c r="M58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="45.75">
+      <c r="A59" t="s">
+        <v>201</v>
+      </c>
+      <c r="B59" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F59" s="10">
+        <v>33132</v>
+      </c>
+      <c r="G59" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" t="s">
+        <v>108</v>
+      </c>
+      <c r="K59" t="s">
+        <v>103</v>
+      </c>
+      <c r="L59" t="s">
+        <v>104</v>
+      </c>
+      <c r="M59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="45.75">
+      <c r="A60" t="s">
+        <v>201</v>
+      </c>
+      <c r="B60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F60" s="10">
+        <v>33133</v>
+      </c>
+      <c r="G60" t="s">
+        <v>76</v>
+      </c>
+      <c r="H60" t="s">
+        <v>41</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s">
+        <v>108</v>
+      </c>
+      <c r="K60" t="s">
+        <v>103</v>
+      </c>
+      <c r="L60" t="s">
+        <v>104</v>
+      </c>
+      <c r="M60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="45.75">
+      <c r="A61" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D61" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F61" s="10">
+        <v>33134</v>
+      </c>
+      <c r="G61" t="s">
+        <v>76</v>
+      </c>
+      <c r="H61" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s">
+        <v>108</v>
+      </c>
+      <c r="K61" t="s">
+        <v>103</v>
+      </c>
+      <c r="L61" t="s">
+        <v>104</v>
+      </c>
+      <c r="M61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="45.75">
+      <c r="A62" t="s">
+        <v>201</v>
+      </c>
+      <c r="B62" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D62" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F62" s="10">
+        <v>33135</v>
+      </c>
+      <c r="G62" t="s">
+        <v>76</v>
+      </c>
+      <c r="H62" t="s">
+        <v>41</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" t="s">
+        <v>108</v>
+      </c>
+      <c r="K62" t="s">
+        <v>103</v>
+      </c>
+      <c r="L62" t="s">
+        <v>104</v>
+      </c>
+      <c r="M62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="45.75">
+      <c r="A63" t="s">
+        <v>201</v>
+      </c>
+      <c r="B63" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D63" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F63" s="10">
+        <v>33136</v>
+      </c>
+      <c r="G63" t="s">
+        <v>76</v>
+      </c>
+      <c r="H63" t="s">
+        <v>41</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s">
+        <v>108</v>
+      </c>
+      <c r="K63" t="s">
+        <v>103</v>
+      </c>
+      <c r="L63" t="s">
+        <v>104</v>
+      </c>
+      <c r="M63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="45.75">
+      <c r="A64" t="s">
+        <v>201</v>
+      </c>
+      <c r="B64" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D64" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F64" s="10">
+        <v>33137</v>
+      </c>
+      <c r="G64" t="s">
+        <v>76</v>
+      </c>
+      <c r="H64" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s">
+        <v>108</v>
+      </c>
+      <c r="K64" t="s">
+        <v>103</v>
+      </c>
+      <c r="L64" t="s">
+        <v>104</v>
+      </c>
+      <c r="M64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="45.75">
+      <c r="A65" t="s">
+        <v>201</v>
+      </c>
+      <c r="B65" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F65" s="10">
+        <v>33138</v>
+      </c>
+      <c r="G65" t="s">
+        <v>76</v>
+      </c>
+      <c r="H65" t="s">
+        <v>41</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" t="s">
+        <v>108</v>
+      </c>
+      <c r="K65" t="s">
+        <v>103</v>
+      </c>
+      <c r="L65" t="s">
+        <v>104</v>
+      </c>
+      <c r="M65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="45.75">
+      <c r="A66" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D66" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F66" s="10">
+        <v>33139</v>
+      </c>
+      <c r="G66" t="s">
+        <v>76</v>
+      </c>
+      <c r="H66" t="s">
+        <v>41</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" t="s">
+        <v>108</v>
+      </c>
+      <c r="K66" t="s">
+        <v>103</v>
+      </c>
+      <c r="L66" t="s">
+        <v>104</v>
+      </c>
+      <c r="M66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="45.75">
+      <c r="A67" t="s">
+        <v>201</v>
+      </c>
+      <c r="B67" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D67" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F67" s="10">
+        <v>33140</v>
+      </c>
+      <c r="G67" t="s">
+        <v>76</v>
+      </c>
+      <c r="H67" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" t="s">
+        <v>108</v>
+      </c>
+      <c r="K67" t="s">
+        <v>103</v>
+      </c>
+      <c r="L67" t="s">
+        <v>104</v>
+      </c>
+      <c r="M67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="45.75">
+      <c r="A68" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D68" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F68" s="10">
+        <v>33142</v>
+      </c>
+      <c r="G68" t="s">
+        <v>76</v>
+      </c>
+      <c r="H68" t="s">
+        <v>41</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" t="s">
+        <v>108</v>
+      </c>
+      <c r="K68" t="s">
+        <v>103</v>
+      </c>
+      <c r="L68" t="s">
+        <v>104</v>
+      </c>
+      <c r="M68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="45.75">
+      <c r="A69" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D69" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="F69" s="10">
+        <v>33143</v>
+      </c>
+      <c r="G69" t="s">
+        <v>76</v>
+      </c>
+      <c r="H69" t="s">
+        <v>41</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" t="s">
+        <v>108</v>
+      </c>
+      <c r="K69" t="s">
+        <v>103</v>
+      </c>
+      <c r="L69" t="s">
+        <v>104</v>
+      </c>
+      <c r="M69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="45.75">
+      <c r="A70" t="s">
+        <v>201</v>
+      </c>
+      <c r="B70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D70" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F70" s="10">
+        <v>33144</v>
+      </c>
+      <c r="G70" t="s">
+        <v>76</v>
+      </c>
+      <c r="H70" t="s">
+        <v>41</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J70" t="s">
+        <v>108</v>
+      </c>
+      <c r="K70" t="s">
+        <v>103</v>
+      </c>
+      <c r="L70" t="s">
+        <v>104</v>
+      </c>
+      <c r="M70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="45.75">
+      <c r="A71" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D71" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F71" s="10">
+        <v>33145</v>
+      </c>
+      <c r="G71" t="s">
+        <v>76</v>
+      </c>
+      <c r="H71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" t="s">
+        <v>108</v>
+      </c>
+      <c r="K71" t="s">
+        <v>103</v>
+      </c>
+      <c r="L71" t="s">
+        <v>104</v>
+      </c>
+      <c r="M71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="45.75">
+      <c r="A72" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" t="s">
+        <v>106</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D72" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F72" s="10">
+        <v>33146</v>
+      </c>
+      <c r="G72" t="s">
+        <v>76</v>
+      </c>
+      <c r="H72" t="s">
+        <v>41</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" t="s">
+        <v>108</v>
+      </c>
+      <c r="K72" t="s">
+        <v>103</v>
+      </c>
+      <c r="L72" t="s">
+        <v>104</v>
+      </c>
+      <c r="M72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="45.75">
+      <c r="A73" t="s">
+        <v>201</v>
+      </c>
+      <c r="B73" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D73" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F73" s="10">
+        <v>33147</v>
+      </c>
+      <c r="G73" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" t="s">
+        <v>41</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" t="s">
+        <v>108</v>
+      </c>
+      <c r="K73" t="s">
+        <v>103</v>
+      </c>
+      <c r="L73" t="s">
+        <v>104</v>
+      </c>
+      <c r="M73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="45.75">
+      <c r="A74" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D74" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F74" s="10">
+        <v>33148</v>
+      </c>
+      <c r="G74" t="s">
+        <v>76</v>
+      </c>
+      <c r="H74" t="s">
+        <v>41</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J74" t="s">
+        <v>108</v>
+      </c>
+      <c r="K74" t="s">
+        <v>103</v>
+      </c>
+      <c r="L74" t="s">
+        <v>104</v>
+      </c>
+      <c r="M74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="45.75">
+      <c r="A75" t="s">
+        <v>201</v>
+      </c>
+      <c r="B75" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D75" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="F75" s="10">
+        <v>33149</v>
+      </c>
+      <c r="G75" t="s">
+        <v>76</v>
+      </c>
+      <c r="H75" t="s">
+        <v>41</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" t="s">
+        <v>108</v>
+      </c>
+      <c r="K75" t="s">
+        <v>103</v>
+      </c>
+      <c r="L75" t="s">
+        <v>104</v>
+      </c>
+      <c r="M75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="45.75">
+      <c r="A76" t="s">
+        <v>201</v>
+      </c>
+      <c r="B76" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D76" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F76" s="10">
+        <v>33150</v>
+      </c>
+      <c r="G76" t="s">
+        <v>76</v>
+      </c>
+      <c r="H76" t="s">
+        <v>41</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" t="s">
+        <v>108</v>
+      </c>
+      <c r="K76" t="s">
+        <v>103</v>
+      </c>
+      <c r="L76" t="s">
+        <v>104</v>
+      </c>
+      <c r="M76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="45.75">
+      <c r="A77" t="s">
+        <v>201</v>
+      </c>
+      <c r="B77" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F77" s="10">
+        <v>33151</v>
+      </c>
+      <c r="G77" t="s">
+        <v>76</v>
+      </c>
+      <c r="H77" t="s">
+        <v>41</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" t="s">
+        <v>108</v>
+      </c>
+      <c r="K77" t="s">
+        <v>103</v>
+      </c>
+      <c r="L77" t="s">
+        <v>104</v>
+      </c>
+      <c r="M77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="45.75">
+      <c r="A78" t="s">
+        <v>201</v>
+      </c>
+      <c r="B78" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D78" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F78" s="10">
+        <v>33152</v>
+      </c>
+      <c r="G78" t="s">
+        <v>76</v>
+      </c>
+      <c r="H78" t="s">
+        <v>41</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" t="s">
+        <v>108</v>
+      </c>
+      <c r="K78" t="s">
+        <v>103</v>
+      </c>
+      <c r="L78" t="s">
+        <v>104</v>
+      </c>
+      <c r="M78" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="45.75">
+      <c r="A79" t="s">
+        <v>201</v>
+      </c>
+      <c r="B79" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D79" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="F79" s="10">
+        <v>33153</v>
+      </c>
+      <c r="G79" t="s">
+        <v>76</v>
+      </c>
+      <c r="H79" t="s">
+        <v>41</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" t="s">
+        <v>108</v>
+      </c>
+      <c r="K79" t="s">
+        <v>103</v>
+      </c>
+      <c r="L79" t="s">
+        <v>104</v>
+      </c>
+      <c r="M79" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="45.75">
+      <c r="A80" t="s">
+        <v>201</v>
+      </c>
+      <c r="B80" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D80" t="s">
+        <v>27</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F80" s="10">
+        <v>33154</v>
+      </c>
+      <c r="G80" t="s">
+        <v>76</v>
+      </c>
+      <c r="H80" t="s">
+        <v>41</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" t="s">
+        <v>108</v>
+      </c>
+      <c r="K80" t="s">
+        <v>103</v>
+      </c>
+      <c r="L80" t="s">
+        <v>104</v>
+      </c>
+      <c r="M80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="45.75">
+      <c r="A81" t="s">
+        <v>201</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D81" t="s">
+        <v>27</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F81" s="10">
+        <v>33155</v>
+      </c>
+      <c r="G81" t="s">
+        <v>76</v>
+      </c>
+      <c r="H81" t="s">
+        <v>41</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" t="s">
+        <v>108</v>
+      </c>
+      <c r="K81" t="s">
+        <v>103</v>
+      </c>
+      <c r="L81" t="s">
+        <v>104</v>
+      </c>
+      <c r="M81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="45.75">
+      <c r="A82" t="s">
+        <v>201</v>
+      </c>
+      <c r="B82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D82" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F82" s="10">
+        <v>33156</v>
+      </c>
+      <c r="G82" t="s">
+        <v>76</v>
+      </c>
+      <c r="H82" t="s">
+        <v>41</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" t="s">
+        <v>108</v>
+      </c>
+      <c r="K82" t="s">
+        <v>103</v>
+      </c>
+      <c r="L82" t="s">
+        <v>104</v>
+      </c>
+      <c r="M82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="45.75">
+      <c r="A83" t="s">
+        <v>201</v>
+      </c>
+      <c r="B83" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D83" t="s">
+        <v>27</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F83" s="10">
+        <v>33157</v>
+      </c>
+      <c r="G83" t="s">
+        <v>76</v>
+      </c>
+      <c r="H83" t="s">
+        <v>41</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J83" t="s">
+        <v>108</v>
+      </c>
+      <c r="K83" t="s">
+        <v>103</v>
+      </c>
+      <c r="L83" t="s">
+        <v>104</v>
+      </c>
+      <c r="M83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="45.75">
+      <c r="A84" t="s">
+        <v>201</v>
+      </c>
+      <c r="B84" t="s">
+        <v>106</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D84" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F84" s="10">
+        <v>33158</v>
+      </c>
+      <c r="G84" t="s">
+        <v>76</v>
+      </c>
+      <c r="H84" t="s">
+        <v>41</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" t="s">
+        <v>108</v>
+      </c>
+      <c r="K84" t="s">
+        <v>103</v>
+      </c>
+      <c r="L84" t="s">
+        <v>104</v>
+      </c>
+      <c r="M84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="45.75">
+      <c r="A85" t="s">
+        <v>201</v>
+      </c>
+      <c r="B85" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D85" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F85" s="10">
+        <v>33159</v>
+      </c>
+      <c r="G85" t="s">
+        <v>76</v>
+      </c>
+      <c r="H85" t="s">
+        <v>41</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" t="s">
+        <v>108</v>
+      </c>
+      <c r="K85" t="s">
+        <v>103</v>
+      </c>
+      <c r="L85" t="s">
+        <v>104</v>
+      </c>
+      <c r="M85" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="45.75">
+      <c r="A86" t="s">
+        <v>201</v>
+      </c>
+      <c r="B86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D86" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F86" s="10">
+        <v>33160</v>
+      </c>
+      <c r="G86" t="s">
+        <v>76</v>
+      </c>
+      <c r="H86" t="s">
+        <v>41</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86" t="s">
+        <v>108</v>
+      </c>
+      <c r="K86" t="s">
+        <v>103</v>
+      </c>
+      <c r="L86" t="s">
+        <v>104</v>
+      </c>
+      <c r="M86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="45.75">
+      <c r="A87" t="s">
+        <v>201</v>
+      </c>
+      <c r="B87" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D87" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F87" s="10">
+        <v>33161</v>
+      </c>
+      <c r="G87" t="s">
+        <v>76</v>
+      </c>
+      <c r="H87" t="s">
+        <v>41</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J87" t="s">
+        <v>108</v>
+      </c>
+      <c r="K87" t="s">
+        <v>103</v>
+      </c>
+      <c r="L87" t="s">
+        <v>104</v>
+      </c>
+      <c r="M87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="45.75">
+      <c r="A88" t="s">
+        <v>201</v>
+      </c>
+      <c r="B88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D88" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F88" s="10">
+        <v>33162</v>
+      </c>
+      <c r="G88" t="s">
+        <v>76</v>
+      </c>
+      <c r="H88" t="s">
+        <v>41</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J88" t="s">
+        <v>108</v>
+      </c>
+      <c r="K88" t="s">
+        <v>103</v>
+      </c>
+      <c r="L88" t="s">
+        <v>104</v>
+      </c>
+      <c r="M88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="45.75">
+      <c r="A89" t="s">
+        <v>201</v>
+      </c>
+      <c r="B89" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D89" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F89" s="10">
+        <v>33163</v>
+      </c>
+      <c r="G89" t="s">
+        <v>76</v>
+      </c>
+      <c r="H89" t="s">
+        <v>41</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J89" t="s">
+        <v>108</v>
+      </c>
+      <c r="K89" t="s">
+        <v>103</v>
+      </c>
+      <c r="L89" t="s">
+        <v>104</v>
+      </c>
+      <c r="M89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="45.75">
+      <c r="A90" t="s">
+        <v>77</v>
+      </c>
+      <c r="B90" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D90" t="s">
+        <v>27</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F90" s="10">
+        <v>34824</v>
+      </c>
+      <c r="G90" t="s">
+        <v>81</v>
+      </c>
+      <c r="H90" t="s">
+        <v>49</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J90" t="s">
+        <v>42</v>
+      </c>
+      <c r="K90" t="s">
+        <v>43</v>
+      </c>
+      <c r="M90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="45.75">
+      <c r="A91" t="s">
+        <v>82</v>
+      </c>
+      <c r="B91" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F91" s="10">
+        <v>35838</v>
+      </c>
+      <c r="G91" t="s">
+        <v>86</v>
+      </c>
+      <c r="H91" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J91" t="s">
+        <v>89</v>
+      </c>
+      <c r="K91" t="s">
+        <v>22</v>
+      </c>
+      <c r="L91" t="s">
+        <v>23</v>
+      </c>
+      <c r="M91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="45.75">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D92" t="s">
+        <v>27</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F92" s="10">
+        <v>29585</v>
+      </c>
+      <c r="G92" t="s">
+        <v>76</v>
+      </c>
+      <c r="H92" t="s">
+        <v>41</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J92" t="s">
+        <v>94</v>
+      </c>
+      <c r="K92" t="s">
+        <v>22</v>
+      </c>
+      <c r="L92" t="s">
+        <v>95</v>
+      </c>
+      <c r="M92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="45.75">
+      <c r="A93" t="s">
+        <v>77</v>
+      </c>
+      <c r="B93" t="s">
+        <v>78</v>
+      </c>
+      <c r="C93" t="s">
+        <v>96</v>
+      </c>
+      <c r="D93" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F93" s="10">
+        <v>32874</v>
+      </c>
+      <c r="G93" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J93" t="s">
+        <v>97</v>
+      </c>
+      <c r="K93" t="s">
+        <v>22</v>
+      </c>
+      <c r="L93" t="s">
+        <v>23</v>
+      </c>
+      <c r="M93" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="45.75">
+      <c r="A94" t="s">
+        <v>201</v>
+      </c>
+      <c r="B94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D94" t="s">
+        <v>27</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F94" s="10">
+        <v>33169</v>
+      </c>
+      <c r="G94" t="s">
+        <v>76</v>
+      </c>
+      <c r="H94" t="s">
+        <v>41</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J94" t="s">
+        <v>108</v>
+      </c>
+      <c r="K94" t="s">
+        <v>103</v>
+      </c>
+      <c r="L94" t="s">
+        <v>104</v>
+      </c>
+      <c r="M94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="45.75">
+      <c r="A95" t="s">
+        <v>201</v>
+      </c>
+      <c r="B95" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D95" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F95" s="10">
+        <v>33170</v>
+      </c>
+      <c r="G95" t="s">
+        <v>76</v>
+      </c>
+      <c r="H95" t="s">
+        <v>41</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J95" t="s">
+        <v>108</v>
+      </c>
+      <c r="K95" t="s">
+        <v>103</v>
+      </c>
+      <c r="L95" t="s">
+        <v>104</v>
+      </c>
+      <c r="M95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="45.75">
+      <c r="A96" t="s">
+        <v>201</v>
+      </c>
+      <c r="B96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D96" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F96" s="10">
+        <v>33171</v>
+      </c>
+      <c r="G96" t="s">
+        <v>76</v>
+      </c>
+      <c r="H96" t="s">
+        <v>41</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J96" t="s">
+        <v>108</v>
+      </c>
+      <c r="K96" t="s">
+        <v>103</v>
+      </c>
+      <c r="L96" t="s">
+        <v>104</v>
+      </c>
+      <c r="M96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="45.75">
+      <c r="A97" t="s">
+        <v>201</v>
+      </c>
+      <c r="B97" t="s">
+        <v>106</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D97" t="s">
+        <v>27</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="F97" s="10">
+        <v>33172</v>
+      </c>
+      <c r="G97" t="s">
+        <v>76</v>
+      </c>
+      <c r="H97" t="s">
+        <v>41</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J97" t="s">
+        <v>108</v>
+      </c>
+      <c r="K97" t="s">
+        <v>103</v>
+      </c>
+      <c r="L97" t="s">
+        <v>104</v>
+      </c>
+      <c r="M97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="45.75">
+      <c r="A98" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D98" t="s">
+        <v>27</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F98" s="10">
+        <v>33173</v>
+      </c>
+      <c r="G98" t="s">
+        <v>76</v>
+      </c>
+      <c r="H98" t="s">
+        <v>41</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J98" t="s">
+        <v>108</v>
+      </c>
+      <c r="K98" t="s">
+        <v>103</v>
+      </c>
+      <c r="L98" t="s">
+        <v>104</v>
+      </c>
+      <c r="M98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="45.75">
+      <c r="A99" t="s">
+        <v>201</v>
+      </c>
+      <c r="B99" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D99" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F99" s="10">
+        <v>33174</v>
+      </c>
+      <c r="G99" t="s">
+        <v>76</v>
+      </c>
+      <c r="H99" t="s">
+        <v>41</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J99" t="s">
+        <v>108</v>
+      </c>
+      <c r="K99" t="s">
+        <v>103</v>
+      </c>
+      <c r="L99" t="s">
+        <v>104</v>
+      </c>
+      <c r="M99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="45.75">
+      <c r="A100" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>106</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D100" t="s">
+        <v>27</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F100" s="10">
+        <v>33175</v>
+      </c>
+      <c r="G100" t="s">
+        <v>76</v>
+      </c>
+      <c r="H100" t="s">
+        <v>41</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J100" t="s">
+        <v>108</v>
+      </c>
+      <c r="K100" t="s">
+        <v>103</v>
+      </c>
+      <c r="L100" t="s">
+        <v>104</v>
+      </c>
+      <c r="M100" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="45.75">
+      <c r="A101" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F101" s="10">
+        <v>33176</v>
+      </c>
+      <c r="G101" t="s">
+        <v>76</v>
+      </c>
+      <c r="H101" t="s">
+        <v>41</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J101" t="s">
+        <v>108</v>
+      </c>
+      <c r="K101" t="s">
+        <v>103</v>
+      </c>
+      <c r="L101" t="s">
+        <v>104</v>
+      </c>
+      <c r="M101" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="45.75">
+      <c r="A102" t="s">
+        <v>201</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D102" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F102" s="10">
+        <v>33177</v>
+      </c>
+      <c r="G102" t="s">
+        <v>76</v>
+      </c>
+      <c r="H102" t="s">
+        <v>41</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J102" t="s">
+        <v>108</v>
+      </c>
+      <c r="K102" t="s">
+        <v>103</v>
+      </c>
+      <c r="L102" t="s">
+        <v>104</v>
+      </c>
+      <c r="M102" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="45.75">
+      <c r="A103" t="s">
+        <v>201</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D103" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="F103" s="10">
+        <v>33178</v>
+      </c>
+      <c r="G103" t="s">
+        <v>76</v>
+      </c>
+      <c r="H103" t="s">
+        <v>41</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J103" t="s">
+        <v>108</v>
+      </c>
+      <c r="K103" t="s">
+        <v>103</v>
+      </c>
+      <c r="L103" t="s">
+        <v>104</v>
+      </c>
+      <c r="M103" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="45.75">
+      <c r="A104" t="s">
+        <v>201</v>
+      </c>
+      <c r="B104" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D104" t="s">
+        <v>27</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="F104" s="10">
+        <v>33179</v>
+      </c>
+      <c r="G104" t="s">
+        <v>76</v>
+      </c>
+      <c r="H104" t="s">
+        <v>41</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J104" t="s">
+        <v>108</v>
+      </c>
+      <c r="K104" t="s">
+        <v>103</v>
+      </c>
+      <c r="L104" t="s">
+        <v>104</v>
+      </c>
+      <c r="M104" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="45.75">
+      <c r="A105" t="s">
+        <v>201</v>
+      </c>
+      <c r="B105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D105" t="s">
+        <v>27</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F105" s="10">
+        <v>33180</v>
+      </c>
+      <c r="G105" t="s">
+        <v>76</v>
+      </c>
+      <c r="H105" t="s">
+        <v>41</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J105" t="s">
+        <v>108</v>
+      </c>
+      <c r="K105" t="s">
+        <v>103</v>
+      </c>
+      <c r="L105" t="s">
+        <v>104</v>
+      </c>
+      <c r="M105" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="45.75">
+      <c r="A106" t="s">
+        <v>201</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D106" t="s">
+        <v>27</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F106" s="10">
+        <v>33181</v>
+      </c>
+      <c r="G106" t="s">
+        <v>76</v>
+      </c>
+      <c r="H106" t="s">
+        <v>41</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J106" t="s">
+        <v>108</v>
+      </c>
+      <c r="K106" t="s">
+        <v>103</v>
+      </c>
+      <c r="L106" t="s">
+        <v>104</v>
+      </c>
+      <c r="M106" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="45.75">
+      <c r="A107" t="s">
+        <v>201</v>
+      </c>
+      <c r="B107" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D107" t="s">
+        <v>27</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F107" s="10">
+        <v>33182</v>
+      </c>
+      <c r="G107" t="s">
+        <v>76</v>
+      </c>
+      <c r="H107" t="s">
+        <v>41</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J107" t="s">
+        <v>108</v>
+      </c>
+      <c r="K107" t="s">
+        <v>103</v>
+      </c>
+      <c r="L107" t="s">
+        <v>104</v>
+      </c>
+      <c r="M107" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="45.75">
+      <c r="A108" t="s">
+        <v>201</v>
+      </c>
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D108" t="s">
+        <v>27</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F108" s="10">
+        <v>33183</v>
+      </c>
+      <c r="G108" t="s">
+        <v>76</v>
+      </c>
+      <c r="H108" t="s">
+        <v>41</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J108" t="s">
+        <v>108</v>
+      </c>
+      <c r="K108" t="s">
+        <v>103</v>
+      </c>
+      <c r="L108" t="s">
+        <v>104</v>
+      </c>
+      <c r="M108" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="45.75">
+      <c r="A109" t="s">
+        <v>201</v>
+      </c>
+      <c r="B109" t="s">
+        <v>106</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D109" t="s">
+        <v>27</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F109" s="10">
+        <v>33184</v>
+      </c>
+      <c r="G109" t="s">
+        <v>76</v>
+      </c>
+      <c r="H109" t="s">
+        <v>41</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J109" t="s">
+        <v>108</v>
+      </c>
+      <c r="K109" t="s">
+        <v>103</v>
+      </c>
+      <c r="L109" t="s">
+        <v>104</v>
+      </c>
+      <c r="M109" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="45.75">
+      <c r="A110" t="s">
+        <v>201</v>
+      </c>
+      <c r="B110" t="s">
+        <v>106</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D110" t="s">
+        <v>27</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F110" s="10">
+        <v>33185</v>
+      </c>
+      <c r="G110" t="s">
+        <v>76</v>
+      </c>
+      <c r="H110" t="s">
+        <v>41</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J110" t="s">
+        <v>108</v>
+      </c>
+      <c r="K110" t="s">
+        <v>103</v>
+      </c>
+      <c r="L110" t="s">
+        <v>104</v>
+      </c>
+      <c r="M110" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="45.75">
+      <c r="A111" t="s">
+        <v>201</v>
+      </c>
+      <c r="B111" t="s">
+        <v>106</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D111" t="s">
+        <v>27</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F111" s="10">
+        <v>33186</v>
+      </c>
+      <c r="G111" t="s">
+        <v>76</v>
+      </c>
+      <c r="H111" t="s">
+        <v>41</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J111" t="s">
+        <v>108</v>
+      </c>
+      <c r="K111" t="s">
+        <v>103</v>
+      </c>
+      <c r="L111" t="s">
+        <v>104</v>
+      </c>
+      <c r="M111" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="45.75">
+      <c r="A112" t="s">
+        <v>201</v>
+      </c>
+      <c r="B112" t="s">
+        <v>106</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D112" t="s">
+        <v>27</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="F112" s="10">
+        <v>33187</v>
+      </c>
+      <c r="G112" t="s">
+        <v>76</v>
+      </c>
+      <c r="H112" t="s">
+        <v>41</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J112" t="s">
+        <v>108</v>
+      </c>
+      <c r="K112" t="s">
+        <v>103</v>
+      </c>
+      <c r="L112" t="s">
+        <v>104</v>
+      </c>
+      <c r="M112" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="45.75">
+      <c r="A113" t="s">
+        <v>201</v>
+      </c>
+      <c r="B113" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D113" t="s">
+        <v>27</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F113" s="10">
+        <v>33188</v>
+      </c>
+      <c r="G113" t="s">
+        <v>76</v>
+      </c>
+      <c r="H113" t="s">
+        <v>41</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J113" t="s">
+        <v>108</v>
+      </c>
+      <c r="K113" t="s">
+        <v>103</v>
+      </c>
+      <c r="L113" t="s">
+        <v>104</v>
+      </c>
+      <c r="M113" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="45.75">
+      <c r="A114" t="s">
+        <v>201</v>
+      </c>
+      <c r="B114" t="s">
+        <v>106</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D114" t="s">
+        <v>27</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="F114" s="10">
+        <v>33189</v>
+      </c>
+      <c r="G114" t="s">
+        <v>76</v>
+      </c>
+      <c r="H114" t="s">
+        <v>41</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J114" t="s">
+        <v>108</v>
+      </c>
+      <c r="K114" t="s">
+        <v>103</v>
+      </c>
+      <c r="L114" t="s">
+        <v>104</v>
+      </c>
+      <c r="M114" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="45.75">
+      <c r="A115" t="s">
+        <v>201</v>
+      </c>
+      <c r="B115" t="s">
+        <v>106</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D115" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F115" s="10">
+        <v>33190</v>
+      </c>
+      <c r="G115" t="s">
+        <v>76</v>
+      </c>
+      <c r="H115" t="s">
+        <v>41</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J115" t="s">
+        <v>108</v>
+      </c>
+      <c r="K115" t="s">
+        <v>103</v>
+      </c>
+      <c r="L115" t="s">
+        <v>104</v>
+      </c>
+      <c r="M115" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="45.75">
+      <c r="A116" t="s">
+        <v>201</v>
+      </c>
+      <c r="B116" t="s">
+        <v>106</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D116" t="s">
+        <v>27</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F116" s="10">
+        <v>33191</v>
+      </c>
+      <c r="G116" t="s">
+        <v>76</v>
+      </c>
+      <c r="H116" t="s">
+        <v>41</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J116" t="s">
+        <v>108</v>
+      </c>
+      <c r="K116" t="s">
+        <v>103</v>
+      </c>
+      <c r="L116" t="s">
+        <v>104</v>
+      </c>
+      <c r="M116" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="45.75">
+      <c r="A117" t="s">
+        <v>201</v>
+      </c>
+      <c r="B117" t="s">
+        <v>106</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D117" t="s">
+        <v>27</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="F117" s="10">
+        <v>33192</v>
+      </c>
+      <c r="G117" t="s">
+        <v>76</v>
+      </c>
+      <c r="H117" t="s">
+        <v>41</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J117" t="s">
+        <v>108</v>
+      </c>
+      <c r="K117" t="s">
+        <v>103</v>
+      </c>
+      <c r="L117" t="s">
+        <v>104</v>
+      </c>
+      <c r="M117" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="45.75">
+      <c r="A118" t="s">
+        <v>201</v>
+      </c>
+      <c r="B118" t="s">
+        <v>106</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D118" t="s">
+        <v>27</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="F118" s="10">
+        <v>33193</v>
+      </c>
+      <c r="G118" t="s">
+        <v>76</v>
+      </c>
+      <c r="H118" t="s">
+        <v>41</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J118" t="s">
+        <v>108</v>
+      </c>
+      <c r="K118" t="s">
+        <v>103</v>
+      </c>
+      <c r="L118" t="s">
+        <v>104</v>
+      </c>
+      <c r="M118" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="45.75">
+      <c r="A119" t="s">
+        <v>201</v>
+      </c>
+      <c r="B119" t="s">
+        <v>106</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D119" t="s">
+        <v>27</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F119" s="10">
+        <v>33194</v>
+      </c>
+      <c r="G119" t="s">
+        <v>76</v>
+      </c>
+      <c r="H119" t="s">
+        <v>41</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J119" t="s">
+        <v>108</v>
+      </c>
+      <c r="K119" t="s">
+        <v>103</v>
+      </c>
+      <c r="L119" t="s">
+        <v>104</v>
+      </c>
+      <c r="M119" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="45.75">
+      <c r="A120" t="s">
+        <v>201</v>
+      </c>
+      <c r="B120" t="s">
+        <v>106</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D120" t="s">
+        <v>27</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F120" s="10">
+        <v>33195</v>
+      </c>
+      <c r="G120" t="s">
+        <v>76</v>
+      </c>
+      <c r="H120" t="s">
+        <v>41</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J120" t="s">
+        <v>108</v>
+      </c>
+      <c r="K120" t="s">
+        <v>103</v>
+      </c>
+      <c r="L120" t="s">
+        <v>104</v>
+      </c>
+      <c r="M120" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="45.75">
+      <c r="A121" t="s">
+        <v>201</v>
+      </c>
+      <c r="B121" t="s">
+        <v>106</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D121" t="s">
+        <v>27</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F121" s="10">
+        <v>33196</v>
+      </c>
+      <c r="G121" t="s">
+        <v>76</v>
+      </c>
+      <c r="H121" t="s">
+        <v>41</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J121" t="s">
+        <v>108</v>
+      </c>
+      <c r="K121" t="s">
+        <v>103</v>
+      </c>
+      <c r="L121" t="s">
+        <v>104</v>
+      </c>
+      <c r="M121" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="45.75">
+      <c r="A122" t="s">
+        <v>201</v>
+      </c>
+      <c r="B122" t="s">
+        <v>106</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D122" t="s">
+        <v>27</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F122" s="10">
+        <v>33197</v>
+      </c>
+      <c r="G122" t="s">
+        <v>76</v>
+      </c>
+      <c r="H122" t="s">
+        <v>41</v>
+      </c>
+      <c r="I122" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J122" t="s">
+        <v>108</v>
+      </c>
+      <c r="K122" t="s">
+        <v>103</v>
+      </c>
+      <c r="L122" t="s">
+        <v>104</v>
+      </c>
+      <c r="M122" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="45.75">
+      <c r="A123" t="s">
+        <v>201</v>
+      </c>
+      <c r="B123" t="s">
+        <v>106</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D123" t="s">
+        <v>27</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="F123" s="10">
+        <v>33198</v>
+      </c>
+      <c r="G123" t="s">
+        <v>76</v>
+      </c>
+      <c r="H123" t="s">
+        <v>41</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J123" t="s">
+        <v>108</v>
+      </c>
+      <c r="K123" t="s">
+        <v>103</v>
+      </c>
+      <c r="L123" t="s">
+        <v>104</v>
+      </c>
+      <c r="M123" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="45.75">
+      <c r="A124" t="s">
+        <v>201</v>
+      </c>
+      <c r="B124" t="s">
+        <v>106</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D124" t="s">
+        <v>27</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F124" s="10">
+        <v>33199</v>
+      </c>
+      <c r="G124" t="s">
+        <v>76</v>
+      </c>
+      <c r="H124" t="s">
+        <v>41</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J124" t="s">
+        <v>108</v>
+      </c>
+      <c r="K124" t="s">
+        <v>103</v>
+      </c>
+      <c r="L124" t="s">
+        <v>104</v>
+      </c>
+      <c r="M124" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="45.75">
+      <c r="A125" t="s">
+        <v>201</v>
+      </c>
+      <c r="B125" t="s">
+        <v>106</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D125" t="s">
+        <v>27</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="F125" s="10">
+        <v>33200</v>
+      </c>
+      <c r="G125" t="s">
+        <v>76</v>
+      </c>
+      <c r="H125" t="s">
+        <v>41</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J125" t="s">
+        <v>108</v>
+      </c>
+      <c r="K125" t="s">
+        <v>103</v>
+      </c>
+      <c r="L125" t="s">
+        <v>104</v>
+      </c>
+      <c r="M125" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="45.75">
+      <c r="A126" t="s">
+        <v>201</v>
+      </c>
+      <c r="B126" t="s">
+        <v>106</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D126" t="s">
+        <v>27</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F126" s="10">
+        <v>33201</v>
+      </c>
+      <c r="G126" t="s">
+        <v>76</v>
+      </c>
+      <c r="H126" t="s">
+        <v>41</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J126" t="s">
+        <v>108</v>
+      </c>
+      <c r="K126" t="s">
+        <v>103</v>
+      </c>
+      <c r="L126" t="s">
+        <v>104</v>
+      </c>
+      <c r="M126" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="45.75">
+      <c r="A127" t="s">
+        <v>201</v>
+      </c>
+      <c r="B127" t="s">
+        <v>106</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D127" t="s">
+        <v>27</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="F127" s="10">
+        <v>33202</v>
+      </c>
+      <c r="G127" t="s">
+        <v>76</v>
+      </c>
+      <c r="H127" t="s">
+        <v>41</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J127" t="s">
+        <v>108</v>
+      </c>
+      <c r="K127" t="s">
+        <v>103</v>
+      </c>
+      <c r="L127" t="s">
+        <v>104</v>
+      </c>
+      <c r="M127" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="45.75">
+      <c r="A128" t="s">
+        <v>201</v>
+      </c>
+      <c r="B128" t="s">
+        <v>106</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D128" t="s">
+        <v>27</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F128" s="10">
+        <v>33203</v>
+      </c>
+      <c r="G128" t="s">
+        <v>76</v>
+      </c>
+      <c r="H128" t="s">
+        <v>41</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J128" t="s">
+        <v>108</v>
+      </c>
+      <c r="K128" t="s">
+        <v>103</v>
+      </c>
+      <c r="L128" t="s">
+        <v>104</v>
+      </c>
+      <c r="M128" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="45.75">
+      <c r="A129" t="s">
+        <v>201</v>
+      </c>
+      <c r="B129" t="s">
+        <v>106</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D129" t="s">
+        <v>27</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="F129" s="10">
+        <v>33204</v>
+      </c>
+      <c r="G129" t="s">
+        <v>76</v>
+      </c>
+      <c r="H129" t="s">
+        <v>41</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J129" t="s">
+        <v>108</v>
+      </c>
+      <c r="K129" t="s">
+        <v>103</v>
+      </c>
+      <c r="L129" t="s">
+        <v>104</v>
+      </c>
+      <c r="M129" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="45.75">
+      <c r="A130" t="s">
+        <v>201</v>
+      </c>
+      <c r="B130" t="s">
+        <v>106</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D130" t="s">
+        <v>27</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="F130" s="10">
+        <v>33205</v>
+      </c>
+      <c r="G130" t="s">
+        <v>76</v>
+      </c>
+      <c r="H130" t="s">
+        <v>41</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J130" t="s">
+        <v>108</v>
+      </c>
+      <c r="K130" t="s">
+        <v>103</v>
+      </c>
+      <c r="L130" t="s">
+        <v>104</v>
+      </c>
+      <c r="M130" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="45.75">
+      <c r="A131" t="s">
+        <v>201</v>
+      </c>
+      <c r="B131" t="s">
+        <v>106</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D131" t="s">
+        <v>27</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F131" s="10">
+        <v>33206</v>
+      </c>
+      <c r="G131" t="s">
+        <v>76</v>
+      </c>
+      <c r="H131" t="s">
+        <v>41</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J131" t="s">
+        <v>108</v>
+      </c>
+      <c r="K131" t="s">
+        <v>103</v>
+      </c>
+      <c r="L131" t="s">
+        <v>104</v>
+      </c>
+      <c r="M131" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="45.75">
+      <c r="A132" t="s">
+        <v>201</v>
+      </c>
+      <c r="B132" t="s">
+        <v>106</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D132" t="s">
+        <v>27</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F132" s="10">
+        <v>33207</v>
+      </c>
+      <c r="G132" t="s">
+        <v>76</v>
+      </c>
+      <c r="H132" t="s">
+        <v>41</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J132" t="s">
+        <v>108</v>
+      </c>
+      <c r="K132" t="s">
+        <v>103</v>
+      </c>
+      <c r="L132" t="s">
+        <v>104</v>
+      </c>
+      <c r="M132" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="45.75">
+      <c r="A133" t="s">
+        <v>201</v>
+      </c>
+      <c r="B133" t="s">
+        <v>106</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D133" t="s">
+        <v>27</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F133" s="10">
+        <v>33208</v>
+      </c>
+      <c r="G133" t="s">
+        <v>76</v>
+      </c>
+      <c r="H133" t="s">
+        <v>41</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J133" t="s">
+        <v>108</v>
+      </c>
+      <c r="K133" t="s">
+        <v>103</v>
+      </c>
+      <c r="L133" t="s">
+        <v>104</v>
+      </c>
+      <c r="M133" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="45.75">
+      <c r="A134" t="s">
+        <v>201</v>
+      </c>
+      <c r="B134" t="s">
+        <v>106</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D134" t="s">
+        <v>27</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F134" s="10">
+        <v>33209</v>
+      </c>
+      <c r="G134" t="s">
+        <v>76</v>
+      </c>
+      <c r="H134" t="s">
+        <v>41</v>
+      </c>
+      <c r="I134" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J134" t="s">
+        <v>108</v>
+      </c>
+      <c r="K134" t="s">
+        <v>103</v>
+      </c>
+      <c r="L134" t="s">
+        <v>104</v>
+      </c>
+      <c r="M134" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="45.75">
+      <c r="A135" t="s">
+        <v>201</v>
+      </c>
+      <c r="B135" t="s">
+        <v>106</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D135" t="s">
+        <v>27</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F135" s="10">
+        <v>33210</v>
+      </c>
+      <c r="G135" t="s">
+        <v>76</v>
+      </c>
+      <c r="H135" t="s">
+        <v>41</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J135" t="s">
+        <v>108</v>
+      </c>
+      <c r="K135" t="s">
+        <v>103</v>
+      </c>
+      <c r="L135" t="s">
+        <v>104</v>
+      </c>
+      <c r="M135" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="45.75">
+      <c r="A136" t="s">
+        <v>201</v>
+      </c>
+      <c r="B136" t="s">
+        <v>106</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D136" t="s">
+        <v>27</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="F136" s="10">
+        <v>33211</v>
+      </c>
+      <c r="G136" t="s">
+        <v>76</v>
+      </c>
+      <c r="H136" t="s">
+        <v>41</v>
+      </c>
+      <c r="I136" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J136" t="s">
+        <v>108</v>
+      </c>
+      <c r="K136" t="s">
+        <v>103</v>
+      </c>
+      <c r="L136" t="s">
+        <v>104</v>
+      </c>
+      <c r="M136" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="45.75">
+      <c r="A137" t="s">
+        <v>201</v>
+      </c>
+      <c r="B137" t="s">
+        <v>106</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D137" t="s">
+        <v>27</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F137" s="10">
+        <v>33212</v>
+      </c>
+      <c r="G137" t="s">
+        <v>76</v>
+      </c>
+      <c r="H137" t="s">
+        <v>41</v>
+      </c>
+      <c r="I137" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J137" t="s">
+        <v>108</v>
+      </c>
+      <c r="K137" t="s">
+        <v>103</v>
+      </c>
+      <c r="L137" t="s">
+        <v>104</v>
+      </c>
+      <c r="M137" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="45.75">
+      <c r="A138" t="s">
+        <v>201</v>
+      </c>
+      <c r="B138" t="s">
+        <v>106</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D138" t="s">
+        <v>27</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F138" s="10">
+        <v>33213</v>
+      </c>
+      <c r="G138" t="s">
+        <v>76</v>
+      </c>
+      <c r="H138" t="s">
+        <v>41</v>
+      </c>
+      <c r="I138" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J138" t="s">
+        <v>108</v>
+      </c>
+      <c r="K138" t="s">
+        <v>103</v>
+      </c>
+      <c r="L138" t="s">
+        <v>104</v>
+      </c>
+      <c r="M138" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="45.75">
+      <c r="A139" t="s">
+        <v>201</v>
+      </c>
+      <c r="B139" t="s">
+        <v>106</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D139" t="s">
+        <v>27</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F139" s="10">
+        <v>33214</v>
+      </c>
+      <c r="G139" t="s">
+        <v>76</v>
+      </c>
+      <c r="H139" t="s">
+        <v>41</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J139" t="s">
+        <v>108</v>
+      </c>
+      <c r="K139" t="s">
+        <v>103</v>
+      </c>
+      <c r="L139" t="s">
+        <v>104</v>
+      </c>
+      <c r="M139" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="45.75">
+      <c r="A140" t="s">
+        <v>201</v>
+      </c>
+      <c r="B140" t="s">
+        <v>106</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D140" t="s">
+        <v>27</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F140" s="10">
+        <v>33215</v>
+      </c>
+      <c r="G140" t="s">
+        <v>76</v>
+      </c>
+      <c r="H140" t="s">
+        <v>41</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J140" t="s">
+        <v>108</v>
+      </c>
+      <c r="K140" t="s">
+        <v>103</v>
+      </c>
+      <c r="L140" t="s">
+        <v>104</v>
+      </c>
+      <c r="M140" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="45.75">
+      <c r="A141" t="s">
+        <v>201</v>
+      </c>
+      <c r="B141" t="s">
+        <v>106</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D141" t="s">
+        <v>27</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="F141" s="10">
+        <v>33216</v>
+      </c>
+      <c r="G141" t="s">
+        <v>76</v>
+      </c>
+      <c r="H141" t="s">
+        <v>41</v>
+      </c>
+      <c r="I141" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J141" t="s">
+        <v>108</v>
+      </c>
+      <c r="K141" t="s">
+        <v>103</v>
+      </c>
+      <c r="L141" t="s">
+        <v>104</v>
+      </c>
+      <c r="M141" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="45.75">
+      <c r="A142" t="s">
+        <v>201</v>
+      </c>
+      <c r="B142" t="s">
+        <v>106</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D142" t="s">
+        <v>27</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F142" s="10">
+        <v>33217</v>
+      </c>
+      <c r="G142" t="s">
+        <v>76</v>
+      </c>
+      <c r="H142" t="s">
+        <v>41</v>
+      </c>
+      <c r="I142" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J142" t="s">
+        <v>108</v>
+      </c>
+      <c r="K142" t="s">
+        <v>103</v>
+      </c>
+      <c r="L142" t="s">
+        <v>104</v>
+      </c>
+      <c r="M142" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="45.75">
+      <c r="A143" t="s">
+        <v>201</v>
+      </c>
+      <c r="B143" t="s">
+        <v>106</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D143" t="s">
+        <v>27</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F143" s="10">
+        <v>33218</v>
+      </c>
+      <c r="G143" t="s">
+        <v>76</v>
+      </c>
+      <c r="H143" t="s">
+        <v>41</v>
+      </c>
+      <c r="I143" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J143" t="s">
+        <v>108</v>
+      </c>
+      <c r="K143" t="s">
+        <v>103</v>
+      </c>
+      <c r="L143" t="s">
+        <v>104</v>
+      </c>
+      <c r="M143" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="45.75">
+      <c r="A144" t="s">
+        <v>201</v>
+      </c>
+      <c r="B144" t="s">
+        <v>106</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D144" t="s">
+        <v>27</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F144" s="10">
+        <v>33219</v>
+      </c>
+      <c r="G144" t="s">
+        <v>76</v>
+      </c>
+      <c r="H144" t="s">
+        <v>41</v>
+      </c>
+      <c r="I144" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J144" t="s">
+        <v>108</v>
+      </c>
+      <c r="K144" t="s">
+        <v>103</v>
+      </c>
+      <c r="L144" t="s">
+        <v>104</v>
+      </c>
+      <c r="M144" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="45.75">
+      <c r="A145" t="s">
+        <v>201</v>
+      </c>
+      <c r="B145" t="s">
+        <v>106</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D145" t="s">
+        <v>27</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="F145" s="10">
+        <v>33220</v>
+      </c>
+      <c r="G145" t="s">
+        <v>76</v>
+      </c>
+      <c r="H145" t="s">
+        <v>41</v>
+      </c>
+      <c r="I145" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J145" t="s">
+        <v>108</v>
+      </c>
+      <c r="K145" t="s">
+        <v>103</v>
+      </c>
+      <c r="L145" t="s">
+        <v>104</v>
+      </c>
+      <c r="M145" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="45.75">
+      <c r="A146" t="s">
+        <v>201</v>
+      </c>
+      <c r="B146" t="s">
+        <v>106</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D146" t="s">
+        <v>27</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="F146" s="10">
+        <v>33221</v>
+      </c>
+      <c r="G146" t="s">
+        <v>76</v>
+      </c>
+      <c r="H146" t="s">
+        <v>41</v>
+      </c>
+      <c r="I146" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J146" t="s">
+        <v>108</v>
+      </c>
+      <c r="K146" t="s">
+        <v>103</v>
+      </c>
+      <c r="L146" t="s">
+        <v>104</v>
+      </c>
+      <c r="M146" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="45.75">
+      <c r="A147" t="s">
+        <v>201</v>
+      </c>
+      <c r="B147" t="s">
+        <v>106</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D147" t="s">
+        <v>27</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="F147" s="10">
+        <v>33222</v>
+      </c>
+      <c r="G147" t="s">
+        <v>76</v>
+      </c>
+      <c r="H147" t="s">
+        <v>41</v>
+      </c>
+      <c r="I147" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J147" t="s">
+        <v>108</v>
+      </c>
+      <c r="K147" t="s">
+        <v>103</v>
+      </c>
+      <c r="L147" t="s">
+        <v>104</v>
+      </c>
+      <c r="M147" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="45.75">
+      <c r="A148" t="s">
+        <v>201</v>
+      </c>
+      <c r="B148" t="s">
+        <v>106</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D148" t="s">
+        <v>27</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F148" s="10">
+        <v>33223</v>
+      </c>
+      <c r="G148" t="s">
+        <v>76</v>
+      </c>
+      <c r="H148" t="s">
+        <v>41</v>
+      </c>
+      <c r="I148" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J148" t="s">
+        <v>108</v>
+      </c>
+      <c r="K148" t="s">
+        <v>103</v>
+      </c>
+      <c r="L148" t="s">
+        <v>104</v>
+      </c>
+      <c r="M148" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="45.75">
+      <c r="A149" t="s">
+        <v>201</v>
+      </c>
+      <c r="B149" t="s">
+        <v>106</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D149" t="s">
+        <v>27</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F149" s="10">
+        <v>33224</v>
+      </c>
+      <c r="G149" t="s">
+        <v>76</v>
+      </c>
+      <c r="H149" t="s">
+        <v>41</v>
+      </c>
+      <c r="I149" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J149" t="s">
+        <v>108</v>
+      </c>
+      <c r="K149" t="s">
+        <v>103</v>
+      </c>
+      <c r="L149" t="s">
+        <v>104</v>
+      </c>
+      <c r="M149" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="45.75">
+      <c r="A150" t="s">
+        <v>201</v>
+      </c>
+      <c r="B150" t="s">
+        <v>106</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D150" t="s">
+        <v>27</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F150" s="10">
+        <v>33225</v>
+      </c>
+      <c r="G150" t="s">
+        <v>76</v>
+      </c>
+      <c r="H150" t="s">
+        <v>41</v>
+      </c>
+      <c r="I150" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J150" t="s">
+        <v>108</v>
+      </c>
+      <c r="K150" t="s">
+        <v>103</v>
+      </c>
+      <c r="L150" t="s">
+        <v>104</v>
+      </c>
+      <c r="M150" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="45.75">
+      <c r="A151" t="s">
+        <v>201</v>
+      </c>
+      <c r="B151" t="s">
+        <v>106</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D151" t="s">
+        <v>27</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="F151" s="10">
+        <v>33226</v>
+      </c>
+      <c r="G151" t="s">
+        <v>76</v>
+      </c>
+      <c r="H151" t="s">
+        <v>41</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J151" t="s">
+        <v>108</v>
+      </c>
+      <c r="K151" t="s">
+        <v>103</v>
+      </c>
+      <c r="L151" t="s">
+        <v>104</v>
+      </c>
+      <c r="M151" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="45.75">
+      <c r="A152" t="s">
+        <v>201</v>
+      </c>
+      <c r="B152" t="s">
+        <v>106</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D152" t="s">
+        <v>27</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="F152" s="10">
+        <v>33247</v>
+      </c>
+      <c r="G152" t="s">
+        <v>76</v>
+      </c>
+      <c r="H152" t="s">
+        <v>41</v>
+      </c>
+      <c r="I152" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J152" t="s">
+        <v>108</v>
+      </c>
+      <c r="K152" t="s">
+        <v>103</v>
+      </c>
+      <c r="L152" t="s">
+        <v>104</v>
+      </c>
+      <c r="M152" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="45.75">
+      <c r="A153" t="s">
+        <v>201</v>
+      </c>
+      <c r="B153" t="s">
+        <v>106</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D153" t="s">
+        <v>27</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="F153" s="10">
+        <v>33248</v>
+      </c>
+      <c r="G153" t="s">
+        <v>76</v>
+      </c>
+      <c r="H153" t="s">
+        <v>41</v>
+      </c>
+      <c r="I153" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J153" t="s">
+        <v>108</v>
+      </c>
+      <c r="K153" t="s">
+        <v>103</v>
+      </c>
+      <c r="L153" t="s">
+        <v>104</v>
+      </c>
+      <c r="M153" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="45.75">
+      <c r="A154" t="s">
+        <v>201</v>
+      </c>
+      <c r="B154" t="s">
+        <v>106</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D154" t="s">
+        <v>27</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="F154" s="10">
+        <v>33255</v>
+      </c>
+      <c r="G154" t="s">
+        <v>76</v>
+      </c>
+      <c r="H154" t="s">
+        <v>41</v>
+      </c>
+      <c r="I154" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J154" t="s">
+        <v>108</v>
+      </c>
+      <c r="K154" t="s">
+        <v>103</v>
+      </c>
+      <c r="L154" t="s">
+        <v>104</v>
+      </c>
+      <c r="M154" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="45.75">
+      <c r="A155" t="s">
+        <v>201</v>
+      </c>
+      <c r="B155" t="s">
+        <v>106</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D155" t="s">
+        <v>27</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="F155" s="10">
+        <v>33256</v>
+      </c>
+      <c r="G155" t="s">
+        <v>76</v>
+      </c>
+      <c r="H155" t="s">
+        <v>41</v>
+      </c>
+      <c r="I155" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J155" t="s">
+        <v>108</v>
+      </c>
+      <c r="K155" t="s">
+        <v>103</v>
+      </c>
+      <c r="L155" t="s">
+        <v>104</v>
+      </c>
+      <c r="M155" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="45.75">
+      <c r="A156" t="s">
+        <v>201</v>
+      </c>
+      <c r="B156" t="s">
+        <v>106</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D156" t="s">
+        <v>27</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F156" s="10">
+        <v>33257</v>
+      </c>
+      <c r="G156" t="s">
+        <v>76</v>
+      </c>
+      <c r="H156" t="s">
+        <v>41</v>
+      </c>
+      <c r="I156" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J156" t="s">
+        <v>108</v>
+      </c>
+      <c r="K156" t="s">
+        <v>103</v>
+      </c>
+      <c r="L156" t="s">
+        <v>104</v>
+      </c>
+      <c r="M156" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="45.75">
+      <c r="A157" t="s">
+        <v>201</v>
+      </c>
+      <c r="B157" t="s">
+        <v>106</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D157" t="s">
+        <v>27</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="F157" s="10">
+        <v>33258</v>
+      </c>
+      <c r="G157" t="s">
+        <v>76</v>
+      </c>
+      <c r="H157" t="s">
+        <v>41</v>
+      </c>
+      <c r="I157" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J157" t="s">
+        <v>108</v>
+      </c>
+      <c r="K157" t="s">
+        <v>103</v>
+      </c>
+      <c r="L157" t="s">
+        <v>104</v>
+      </c>
+      <c r="M157" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="45.75">
+      <c r="A158" t="s">
+        <v>98</v>
+      </c>
+      <c r="B158" t="s">
+        <v>99</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D158" t="s">
+        <v>16</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F158" s="10">
+        <v>35117</v>
+      </c>
+      <c r="G158" t="s">
+        <v>101</v>
+      </c>
+      <c r="H158" t="s">
+        <v>41</v>
+      </c>
+      <c r="I158" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J158" t="s">
+        <v>102</v>
+      </c>
+      <c r="K158" t="s">
+        <v>103</v>
+      </c>
+      <c r="L158" t="s">
+        <v>104</v>
+      </c>
+      <c r="M158" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="45.75">
+      <c r="A159" t="s">
+        <v>105</v>
+      </c>
+      <c r="B159" t="s">
+        <v>106</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D159" t="s">
+        <v>16</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F159" s="10">
+        <v>33086</v>
+      </c>
+      <c r="G159" t="s">
+        <v>76</v>
+      </c>
+      <c r="H159" t="s">
+        <v>41</v>
+      </c>
+      <c r="I159" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J159" t="s">
+        <v>108</v>
+      </c>
+      <c r="K159" t="s">
+        <v>103</v>
+      </c>
+      <c r="L159" t="s">
+        <v>104</v>
+      </c>
+      <c r="M159" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="45.75">
+      <c r="A160" t="s">
+        <v>109</v>
+      </c>
+      <c r="B160" t="s">
+        <v>110</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D160" t="s">
+        <v>27</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F160" s="10">
+        <v>33087</v>
+      </c>
+      <c r="G160" t="s">
+        <v>76</v>
+      </c>
+      <c r="H160" t="s">
+        <v>41</v>
+      </c>
+      <c r="I160" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J160" t="s">
+        <v>108</v>
+      </c>
+      <c r="K160" t="s">
+        <v>103</v>
+      </c>
+      <c r="L160" t="s">
+        <v>104</v>
+      </c>
+      <c r="M160" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="45.75">
+      <c r="A161" t="s">
+        <v>112</v>
+      </c>
+      <c r="B161" t="s">
+        <v>99</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D161" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F161" s="10">
+        <v>33088</v>
+      </c>
+      <c r="G161" t="s">
+        <v>76</v>
+      </c>
+      <c r="H161" t="s">
+        <v>41</v>
+      </c>
+      <c r="I161" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J161" t="s">
+        <v>108</v>
+      </c>
+      <c r="K161" t="s">
+        <v>103</v>
+      </c>
+      <c r="L161" t="s">
+        <v>104</v>
+      </c>
+      <c r="M161" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="45.75">
+      <c r="A162" t="s">
+        <v>114</v>
+      </c>
+      <c r="B162" t="s">
+        <v>115</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D162" t="s">
+        <v>27</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F162" s="10">
+        <v>33089</v>
+      </c>
+      <c r="G162" t="s">
+        <v>76</v>
+      </c>
+      <c r="H162" t="s">
+        <v>41</v>
+      </c>
+      <c r="I162" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J162" t="s">
+        <v>108</v>
+      </c>
+      <c r="K162" t="s">
+        <v>103</v>
+      </c>
+      <c r="L162" t="s">
+        <v>104</v>
+      </c>
+      <c r="M162" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="45.75">
+      <c r="A163" t="s">
+        <v>117</v>
+      </c>
+      <c r="B163" t="s">
+        <v>69</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D163" t="s">
+        <v>16</v>
+      </c>
+      <c r="E163" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F163" s="10">
+        <v>33090</v>
+      </c>
+      <c r="G163" t="s">
+        <v>76</v>
+      </c>
+      <c r="H163" t="s">
+        <v>41</v>
+      </c>
+      <c r="I163" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J163" t="s">
+        <v>108</v>
+      </c>
+      <c r="K163" t="s">
+        <v>103</v>
+      </c>
+      <c r="L163" t="s">
+        <v>104</v>
+      </c>
+      <c r="M163" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="45.75">
+      <c r="A164" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F164" s="6">
+        <v>37394</v>
+      </c>
+      <c r="G164" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H164" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I164" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L164" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M164" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="45.75">
+      <c r="A165" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B165" t="s">
+        <v>25</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D165" t="s">
+        <v>27</v>
+      </c>
+      <c r="E165" s="5"/>
+      <c r="F165" s="6">
+        <v>37395</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I165" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L165" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M165" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="45.75">
+      <c r="A166" t="s">
+        <v>30</v>
+      </c>
+      <c r="B166" t="s">
+        <v>310</v>
+      </c>
+      <c r="D166" t="s">
+        <v>16</v>
+      </c>
+      <c r="F166" s="6">
+        <v>37396</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I166" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L166" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M166" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="45.75">
+      <c r="A167" t="s">
+        <v>32</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D167" t="s">
+        <v>27</v>
+      </c>
+      <c r="E167" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F167" s="10">
+        <v>32874</v>
+      </c>
+      <c r="G167" t="s">
+        <v>18</v>
+      </c>
+      <c r="H167" t="s">
+        <v>19</v>
+      </c>
+      <c r="I167" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J167" t="s">
+        <v>35</v>
+      </c>
+      <c r="K167" t="s">
+        <v>22</v>
+      </c>
+      <c r="L167" t="s">
+        <v>23</v>
+      </c>
+      <c r="M167" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="45.75">
+      <c r="A168" t="s">
+        <v>36</v>
+      </c>
+      <c r="B168" t="s">
+        <v>37</v>
+      </c>
+      <c r="C168" s="4"/>
+      <c r="D168" t="s">
+        <v>27</v>
+      </c>
+      <c r="E168" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F168" s="10">
+        <v>31366</v>
+      </c>
+      <c r="G168" t="s">
+        <v>40</v>
+      </c>
+      <c r="H168" t="s">
+        <v>41</v>
+      </c>
+      <c r="I168" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J168" t="s">
+        <v>42</v>
+      </c>
+      <c r="K168" t="s">
+        <v>43</v>
+      </c>
+      <c r="L168" t="s">
+        <v>44</v>
+      </c>
+      <c r="M168" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="45.75">
+      <c r="A169" t="s">
+        <v>45</v>
+      </c>
+      <c r="B169" t="s">
+        <v>46</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F169" s="10">
+        <v>34778</v>
+      </c>
+      <c r="G169" t="s">
+        <v>48</v>
+      </c>
+      <c r="H169" t="s">
+        <v>49</v>
+      </c>
+      <c r="I169" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J169" t="s">
+        <v>50</v>
+      </c>
+      <c r="K169" t="s">
+        <v>51</v>
+      </c>
+      <c r="L169" t="s">
+        <v>52</v>
+      </c>
+      <c r="M169" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="45.75">
+      <c r="A170" t="s">
+        <v>55</v>
+      </c>
+      <c r="B170" t="s">
+        <v>56</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D170" t="s">
+        <v>27</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F170" s="10"/>
+      <c r="G170" t="s">
+        <v>58</v>
+      </c>
+      <c r="H170" t="s">
+        <v>59</v>
+      </c>
+      <c r="I170" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J170" t="s">
+        <v>60</v>
+      </c>
+      <c r="K170" t="s">
+        <v>43</v>
+      </c>
+      <c r="L170" t="s">
+        <v>61</v>
+      </c>
+      <c r="M170" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="45.75">
+      <c r="A171" t="s">
+        <v>62</v>
+      </c>
+      <c r="B171" t="s">
+        <v>63</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D171" t="s">
+        <v>27</v>
+      </c>
+      <c r="E171" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F171" s="10">
+        <v>34656</v>
+      </c>
+      <c r="G171" t="s">
+        <v>18</v>
+      </c>
+      <c r="I171" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J171" t="s">
+        <v>66</v>
+      </c>
+      <c r="K171" t="s">
+        <v>51</v>
+      </c>
+      <c r="L171" t="s">
+        <v>67</v>
+      </c>
+      <c r="M171" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
+      <c r="A172" t="s">
+        <v>68</v>
+      </c>
+      <c r="B172" t="s">
+        <v>69</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D172" t="s">
+        <v>16</v>
+      </c>
+      <c r="E172" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F172" s="10">
+        <v>35165</v>
+      </c>
+      <c r="G172" t="s">
+        <v>58</v>
+      </c>
+      <c r="H172" t="s">
+        <v>59</v>
+      </c>
+      <c r="I172" s="7"/>
+      <c r="J172" t="s">
+        <v>72</v>
+      </c>
+      <c r="K172" t="s">
+        <v>43</v>
+      </c>
+      <c r="L172" t="s">
+        <v>61</v>
+      </c>
+      <c r="M172" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="45.75">
+      <c r="A173" t="s">
+        <v>73</v>
+      </c>
+      <c r="B173" t="s">
+        <v>37</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D173" t="s">
+        <v>16</v>
+      </c>
+      <c r="E173" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F173" s="10">
+        <v>36061</v>
+      </c>
+      <c r="G173" t="s">
+        <v>76</v>
+      </c>
+      <c r="H173" t="s">
+        <v>41</v>
+      </c>
+      <c r="I173" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K173" t="s">
+        <v>43</v>
+      </c>
+      <c r="L173" t="s">
+        <v>61</v>
+      </c>
+      <c r="M173" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="45.75">
+      <c r="A174" t="s">
+        <v>77</v>
+      </c>
+      <c r="B174" t="s">
+        <v>78</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D174" t="s">
+        <v>27</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F174" s="10">
+        <v>34824</v>
+      </c>
+      <c r="G174" t="s">
+        <v>81</v>
+      </c>
+      <c r="H174" t="s">
+        <v>49</v>
+      </c>
+      <c r="I174" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J174" t="s">
+        <v>42</v>
+      </c>
+      <c r="K174" t="s">
+        <v>43</v>
+      </c>
+      <c r="M174" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="45.75">
+      <c r="A175" t="s">
+        <v>82</v>
+      </c>
+      <c r="B175" t="s">
+        <v>83</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D175" t="s">
+        <v>16</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F175" s="10">
+        <v>35838</v>
+      </c>
+      <c r="G175" t="s">
+        <v>86</v>
+      </c>
+      <c r="H175" t="s">
+        <v>19</v>
+      </c>
+      <c r="I175" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J175" t="s">
+        <v>89</v>
+      </c>
+      <c r="K175" t="s">
+        <v>22</v>
+      </c>
+      <c r="L175" t="s">
+        <v>23</v>
+      </c>
+      <c r="M175" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="45.75">
+      <c r="A176" t="s">
+        <v>82</v>
+      </c>
+      <c r="B176" t="s">
+        <v>83</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D176" t="s">
+        <v>16</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="F176" s="10">
+        <v>35839</v>
+      </c>
+      <c r="G176" t="s">
+        <v>86</v>
+      </c>
+      <c r="H176" t="s">
+        <v>19</v>
+      </c>
+      <c r="I176" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J176" t="s">
+        <v>313</v>
+      </c>
+      <c r="K176" t="s">
+        <v>22</v>
+      </c>
+      <c r="L176" t="s">
+        <v>23</v>
+      </c>
+      <c r="M176" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="45.75">
+      <c r="A177" t="s">
+        <v>82</v>
+      </c>
+      <c r="B177" t="s">
+        <v>83</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D177" t="s">
+        <v>16</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="F177" s="10">
+        <v>35840</v>
+      </c>
+      <c r="G177" t="s">
+        <v>86</v>
+      </c>
+      <c r="H177" t="s">
+        <v>19</v>
+      </c>
+      <c r="I177" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J177" t="s">
+        <v>315</v>
+      </c>
+      <c r="K177" t="s">
+        <v>22</v>
+      </c>
+      <c r="L177" t="s">
+        <v>23</v>
+      </c>
+      <c r="M177" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="45.75">
+      <c r="A178" t="s">
+        <v>82</v>
+      </c>
+      <c r="B178" t="s">
+        <v>83</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D178" t="s">
+        <v>16</v>
+      </c>
+      <c r="E178" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="F178" s="10">
+        <v>35841</v>
+      </c>
+      <c r="G178" t="s">
+        <v>86</v>
+      </c>
+      <c r="H178" t="s">
+        <v>19</v>
+      </c>
+      <c r="I178" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J178" t="s">
+        <v>317</v>
+      </c>
+      <c r="K178" t="s">
+        <v>22</v>
+      </c>
+      <c r="L178" t="s">
+        <v>23</v>
+      </c>
+      <c r="M178" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="45.75">
+      <c r="A179" t="s">
+        <v>82</v>
+      </c>
+      <c r="B179" t="s">
+        <v>83</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D179" t="s">
+        <v>16</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="F179" s="10">
+        <v>35842</v>
+      </c>
+      <c r="G179" t="s">
+        <v>86</v>
+      </c>
+      <c r="H179" t="s">
+        <v>19</v>
+      </c>
+      <c r="I179" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J179" t="s">
+        <v>319</v>
+      </c>
+      <c r="K179" t="s">
+        <v>22</v>
+      </c>
+      <c r="L179" t="s">
+        <v>23</v>
+      </c>
+      <c r="M179" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="45.75">
+      <c r="A180" t="s">
+        <v>82</v>
+      </c>
+      <c r="B180" t="s">
+        <v>83</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D180" t="s">
+        <v>16</v>
+      </c>
+      <c r="E180" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="F180" s="10">
+        <v>35843</v>
+      </c>
+      <c r="G180" t="s">
+        <v>86</v>
+      </c>
+      <c r="H180" t="s">
+        <v>19</v>
+      </c>
+      <c r="I180" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J180" t="s">
+        <v>321</v>
+      </c>
+      <c r="K180" t="s">
+        <v>22</v>
+      </c>
+      <c r="L180" t="s">
+        <v>23</v>
+      </c>
+      <c r="M180" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="45.75">
+      <c r="A181" t="s">
+        <v>82</v>
+      </c>
+      <c r="B181" t="s">
+        <v>83</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D181" t="s">
+        <v>16</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="F181" s="10">
+        <v>35844</v>
+      </c>
+      <c r="G181" t="s">
+        <v>86</v>
+      </c>
+      <c r="H181" t="s">
+        <v>19</v>
+      </c>
+      <c r="I181" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J181" t="s">
+        <v>323</v>
+      </c>
+      <c r="K181" t="s">
+        <v>22</v>
+      </c>
+      <c r="L181" t="s">
+        <v>23</v>
+      </c>
+      <c r="M181" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" ht="45.75">
+      <c r="A182" t="s">
+        <v>82</v>
+      </c>
+      <c r="B182" t="s">
+        <v>83</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D182" t="s">
+        <v>16</v>
+      </c>
+      <c r="E182" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="F182" s="10">
+        <v>35845</v>
+      </c>
+      <c r="G182" t="s">
+        <v>86</v>
+      </c>
+      <c r="H182" t="s">
+        <v>19</v>
+      </c>
+      <c r="I182" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J182" t="s">
+        <v>325</v>
+      </c>
+      <c r="K182" t="s">
+        <v>22</v>
+      </c>
+      <c r="L182" t="s">
+        <v>23</v>
+      </c>
+      <c r="M182" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="45.75">
+      <c r="A183" t="s">
+        <v>82</v>
+      </c>
+      <c r="B183" t="s">
+        <v>83</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D183" t="s">
+        <v>16</v>
+      </c>
+      <c r="E183" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="F183" s="10">
+        <v>35846</v>
+      </c>
+      <c r="G183" t="s">
+        <v>86</v>
+      </c>
+      <c r="H183" t="s">
+        <v>19</v>
+      </c>
+      <c r="I183" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J183" t="s">
+        <v>327</v>
+      </c>
+      <c r="K183" t="s">
+        <v>22</v>
+      </c>
+      <c r="L183" t="s">
+        <v>23</v>
+      </c>
+      <c r="M183" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="45.75">
+      <c r="A184" t="s">
+        <v>82</v>
+      </c>
+      <c r="B184" t="s">
+        <v>83</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D184" t="s">
+        <v>16</v>
+      </c>
+      <c r="E184" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="F184" s="10">
+        <v>35847</v>
+      </c>
+      <c r="G184" t="s">
+        <v>86</v>
+      </c>
+      <c r="H184" t="s">
+        <v>19</v>
+      </c>
+      <c r="I184" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J184" t="s">
+        <v>329</v>
+      </c>
+      <c r="K184" t="s">
+        <v>22</v>
+      </c>
+      <c r="L184" t="s">
+        <v>23</v>
+      </c>
+      <c r="M184" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="45.75">
+      <c r="A185" t="s">
+        <v>82</v>
+      </c>
+      <c r="B185" t="s">
+        <v>83</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D185" t="s">
+        <v>16</v>
+      </c>
+      <c r="E185" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="F185" s="10">
+        <v>35848</v>
+      </c>
+      <c r="G185" t="s">
+        <v>86</v>
+      </c>
+      <c r="H185" t="s">
+        <v>19</v>
+      </c>
+      <c r="I185" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J185" t="s">
+        <v>331</v>
+      </c>
+      <c r="K185" t="s">
+        <v>22</v>
+      </c>
+      <c r="L185" t="s">
+        <v>23</v>
+      </c>
+      <c r="M185" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="45.75">
+      <c r="A186" t="s">
+        <v>82</v>
+      </c>
+      <c r="B186" t="s">
+        <v>83</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D186" t="s">
+        <v>16</v>
+      </c>
+      <c r="E186" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="F186" s="10">
+        <v>35849</v>
+      </c>
+      <c r="G186" t="s">
+        <v>86</v>
+      </c>
+      <c r="H186" t="s">
+        <v>19</v>
+      </c>
+      <c r="I186" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J186" t="s">
+        <v>333</v>
+      </c>
+      <c r="K186" t="s">
+        <v>22</v>
+      </c>
+      <c r="L186" t="s">
+        <v>23</v>
+      </c>
+      <c r="M186" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="45.75">
+      <c r="A187" t="s">
+        <v>82</v>
+      </c>
+      <c r="B187" t="s">
+        <v>83</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D187" t="s">
+        <v>16</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="F187" s="10">
+        <v>35850</v>
+      </c>
+      <c r="G187" t="s">
+        <v>86</v>
+      </c>
+      <c r="H187" t="s">
+        <v>19</v>
+      </c>
+      <c r="I187" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J187" t="s">
+        <v>335</v>
+      </c>
+      <c r="K187" t="s">
+        <v>22</v>
+      </c>
+      <c r="L187" t="s">
+        <v>23</v>
+      </c>
+      <c r="M187" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="45.75">
+      <c r="A188" t="s">
+        <v>82</v>
+      </c>
+      <c r="B188" t="s">
+        <v>83</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D188" t="s">
+        <v>16</v>
+      </c>
+      <c r="E188" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="F188" s="10">
+        <v>35851</v>
+      </c>
+      <c r="G188" t="s">
+        <v>86</v>
+      </c>
+      <c r="H188" t="s">
+        <v>19</v>
+      </c>
+      <c r="I188" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J188" t="s">
+        <v>337</v>
+      </c>
+      <c r="K188" t="s">
+        <v>22</v>
+      </c>
+      <c r="L188" t="s">
+        <v>23</v>
+      </c>
+      <c r="M188" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="45.75">
+      <c r="A189" t="s">
+        <v>82</v>
+      </c>
+      <c r="B189" t="s">
+        <v>83</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D189" t="s">
+        <v>16</v>
+      </c>
+      <c r="E189" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="F189" s="10">
+        <v>35852</v>
+      </c>
+      <c r="G189" t="s">
+        <v>86</v>
+      </c>
+      <c r="H189" t="s">
+        <v>19</v>
+      </c>
+      <c r="I189" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J189" t="s">
+        <v>339</v>
+      </c>
+      <c r="K189" t="s">
+        <v>22</v>
+      </c>
+      <c r="L189" t="s">
+        <v>23</v>
+      </c>
+      <c r="M189" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="45.75">
+      <c r="A190" t="s">
+        <v>82</v>
+      </c>
+      <c r="B190" t="s">
+        <v>83</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D190" t="s">
+        <v>16</v>
+      </c>
+      <c r="E190" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="F190" s="10">
+        <v>35853</v>
+      </c>
+      <c r="G190" t="s">
+        <v>86</v>
+      </c>
+      <c r="H190" t="s">
+        <v>19</v>
+      </c>
+      <c r="I190" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J190" t="s">
+        <v>341</v>
+      </c>
+      <c r="K190" t="s">
+        <v>22</v>
+      </c>
+      <c r="L190" t="s">
+        <v>23</v>
+      </c>
+      <c r="M190" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="45.75">
+      <c r="A191" t="s">
+        <v>82</v>
+      </c>
+      <c r="B191" t="s">
+        <v>83</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D191" t="s">
+        <v>16</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F191" s="10">
+        <v>35854</v>
+      </c>
+      <c r="G191" t="s">
+        <v>86</v>
+      </c>
+      <c r="H191" t="s">
+        <v>19</v>
+      </c>
+      <c r="I191" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J191" t="s">
+        <v>343</v>
+      </c>
+      <c r="K191" t="s">
+        <v>22</v>
+      </c>
+      <c r="L191" t="s">
+        <v>23</v>
+      </c>
+      <c r="M191" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="45.75">
+      <c r="A192" t="s">
+        <v>82</v>
+      </c>
+      <c r="B192" t="s">
+        <v>83</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D192" t="s">
+        <v>16</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="F192" s="10">
+        <v>35855</v>
+      </c>
+      <c r="G192" t="s">
+        <v>86</v>
+      </c>
+      <c r="H192" t="s">
+        <v>19</v>
+      </c>
+      <c r="I192" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J192" t="s">
+        <v>345</v>
+      </c>
+      <c r="K192" t="s">
+        <v>22</v>
+      </c>
+      <c r="L192" t="s">
+        <v>23</v>
+      </c>
+      <c r="M192" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" ht="45.75">
+      <c r="A193" t="s">
+        <v>82</v>
+      </c>
+      <c r="B193" t="s">
+        <v>83</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D193" t="s">
+        <v>16</v>
+      </c>
+      <c r="E193" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="F193" s="10">
+        <v>35856</v>
+      </c>
+      <c r="G193" t="s">
+        <v>86</v>
+      </c>
+      <c r="H193" t="s">
+        <v>19</v>
+      </c>
+      <c r="I193" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J193" t="s">
+        <v>347</v>
+      </c>
+      <c r="K193" t="s">
+        <v>22</v>
+      </c>
+      <c r="L193" t="s">
+        <v>23</v>
+      </c>
+      <c r="M193" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" ht="45.75">
+      <c r="A194" t="s">
+        <v>82</v>
+      </c>
+      <c r="B194" t="s">
+        <v>83</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D194" t="s">
+        <v>16</v>
+      </c>
+      <c r="E194" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="F194" s="10">
+        <v>35857</v>
+      </c>
+      <c r="G194" t="s">
+        <v>86</v>
+      </c>
+      <c r="H194" t="s">
+        <v>19</v>
+      </c>
+      <c r="I194" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J194" t="s">
+        <v>349</v>
+      </c>
+      <c r="K194" t="s">
+        <v>22</v>
+      </c>
+      <c r="L194" t="s">
+        <v>23</v>
+      </c>
+      <c r="M194" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" ht="45.75">
+      <c r="A195" t="s">
+        <v>82</v>
+      </c>
+      <c r="B195" t="s">
+        <v>83</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D195" t="s">
+        <v>16</v>
+      </c>
+      <c r="E195" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="F195" s="10">
+        <v>35858</v>
+      </c>
+      <c r="G195" t="s">
+        <v>86</v>
+      </c>
+      <c r="H195" t="s">
+        <v>19</v>
+      </c>
+      <c r="I195" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J195" t="s">
+        <v>351</v>
+      </c>
+      <c r="K195" t="s">
+        <v>22</v>
+      </c>
+      <c r="L195" t="s">
+        <v>23</v>
+      </c>
+      <c r="M195" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" ht="45.75">
+      <c r="A196" t="s">
+        <v>82</v>
+      </c>
+      <c r="B196" t="s">
+        <v>83</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D196" t="s">
+        <v>16</v>
+      </c>
+      <c r="E196" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="F196" s="10">
+        <v>35859</v>
+      </c>
+      <c r="G196" t="s">
+        <v>86</v>
+      </c>
+      <c r="H196" t="s">
+        <v>19</v>
+      </c>
+      <c r="I196" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J196" t="s">
+        <v>353</v>
+      </c>
+      <c r="K196" t="s">
+        <v>22</v>
+      </c>
+      <c r="L196" t="s">
+        <v>23</v>
+      </c>
+      <c r="M196" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" ht="45.75">
+      <c r="A197" t="s">
+        <v>82</v>
+      </c>
+      <c r="B197" t="s">
+        <v>83</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D197" t="s">
+        <v>16</v>
+      </c>
+      <c r="E197" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="F197" s="10">
+        <v>35860</v>
+      </c>
+      <c r="G197" t="s">
+        <v>86</v>
+      </c>
+      <c r="H197" t="s">
+        <v>19</v>
+      </c>
+      <c r="I197" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J197" t="s">
+        <v>355</v>
+      </c>
+      <c r="K197" t="s">
+        <v>22</v>
+      </c>
+      <c r="L197" t="s">
+        <v>23</v>
+      </c>
+      <c r="M197" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" ht="45.75">
+      <c r="A198" t="s">
+        <v>82</v>
+      </c>
+      <c r="B198" t="s">
+        <v>83</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D198" t="s">
+        <v>16</v>
+      </c>
+      <c r="E198" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="F198" s="10">
+        <v>35861</v>
+      </c>
+      <c r="G198" t="s">
+        <v>86</v>
+      </c>
+      <c r="H198" t="s">
+        <v>19</v>
+      </c>
+      <c r="I198" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J198" t="s">
+        <v>357</v>
+      </c>
+      <c r="K198" t="s">
+        <v>22</v>
+      </c>
+      <c r="L198" t="s">
+        <v>23</v>
+      </c>
+      <c r="M198" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" ht="45.75">
+      <c r="A199" t="s">
+        <v>82</v>
+      </c>
+      <c r="B199" t="s">
+        <v>83</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D199" t="s">
+        <v>16</v>
+      </c>
+      <c r="E199" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="F199" s="10">
+        <v>35862</v>
+      </c>
+      <c r="G199" t="s">
+        <v>86</v>
+      </c>
+      <c r="H199" t="s">
+        <v>19</v>
+      </c>
+      <c r="I199" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J199" t="s">
+        <v>359</v>
+      </c>
+      <c r="K199" t="s">
+        <v>22</v>
+      </c>
+      <c r="L199" t="s">
+        <v>23</v>
+      </c>
+      <c r="M199" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" ht="45.75">
+      <c r="A200" t="s">
+        <v>82</v>
+      </c>
+      <c r="B200" t="s">
+        <v>83</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D200" t="s">
+        <v>16</v>
+      </c>
+      <c r="E200" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F200" s="10">
+        <v>35863</v>
+      </c>
+      <c r="G200" t="s">
+        <v>86</v>
+      </c>
+      <c r="H200" t="s">
+        <v>19</v>
+      </c>
+      <c r="I200" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J200" t="s">
+        <v>361</v>
+      </c>
+      <c r="K200" t="s">
+        <v>22</v>
+      </c>
+      <c r="L200" t="s">
+        <v>23</v>
+      </c>
+      <c r="M200" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" ht="45.75">
+      <c r="A201" t="s">
+        <v>82</v>
+      </c>
+      <c r="B201" t="s">
+        <v>83</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D201" t="s">
+        <v>16</v>
+      </c>
+      <c r="E201" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="F201" s="10">
+        <v>35864</v>
+      </c>
+      <c r="G201" t="s">
+        <v>86</v>
+      </c>
+      <c r="H201" t="s">
+        <v>19</v>
+      </c>
+      <c r="I201" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J201" t="s">
+        <v>363</v>
+      </c>
+      <c r="K201" t="s">
+        <v>22</v>
+      </c>
+      <c r="L201" t="s">
+        <v>23</v>
+      </c>
+      <c r="M201" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" ht="45.75">
+      <c r="A202" t="s">
+        <v>82</v>
+      </c>
+      <c r="B202" t="s">
+        <v>83</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D202" t="s">
+        <v>16</v>
+      </c>
+      <c r="E202" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="F202" s="10">
+        <v>35865</v>
+      </c>
+      <c r="G202" t="s">
+        <v>86</v>
+      </c>
+      <c r="H202" t="s">
+        <v>19</v>
+      </c>
+      <c r="I202" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J202" t="s">
+        <v>365</v>
+      </c>
+      <c r="K202" t="s">
+        <v>22</v>
+      </c>
+      <c r="L202" t="s">
+        <v>23</v>
+      </c>
+      <c r="M202" t="s">
         <v>29</v>
       </c>
     </row>
@@ -715,6 +9805,200 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{535D45C4-69A3-4360-BA3F-AD6B57C201C8}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{12442C18-4400-4B72-AF0F-5C3824FFB2F0}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{2828F349-C63F-41B7-AD17-2E6ACE710402}"/>
+    <hyperlink ref="C16" r:id="rId4" xr:uid="{7F638E79-13CA-423C-BCF4-44BB2AFB8253}"/>
+    <hyperlink ref="C15" r:id="rId5" xr:uid="{7E2A9584-81BB-4B17-ADFF-4D5C21A83C9E}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{CF9D6EB7-D9CA-4C7E-B6D4-A78CB2CEE9B0}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{302C8BDB-A9B3-4712-99BA-B3C9B82DF654}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{D38FDFF1-6A4F-4B69-80F9-0D0F9A5705B4}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{05ACF78E-A504-4850-A6E4-301DA9538E34}"/>
+    <hyperlink ref="C10" r:id="rId10" xr:uid="{5A6C8C13-88D9-4957-8E9C-2A7553B0D04A}"/>
+    <hyperlink ref="C18" r:id="rId11" xr:uid="{0837FF88-536A-4713-914C-52704F18C273}"/>
+    <hyperlink ref="C48" r:id="rId12" xr:uid="{B14AFC3F-AC15-4E49-B0E1-EDBB061F18D9}"/>
+    <hyperlink ref="C49" r:id="rId13" xr:uid="{ED5805ED-35BC-4C84-9A1D-B96FB779F633}"/>
+    <hyperlink ref="C50" r:id="rId14" xr:uid="{669A332D-6A34-4CD6-BB47-5D27F25937B8}"/>
+    <hyperlink ref="C51" r:id="rId15" xr:uid="{FBBF0165-0D71-4006-BC05-93B84A2502E9}"/>
+    <hyperlink ref="C52" r:id="rId16" xr:uid="{CE88A736-62B2-4EA1-B6C1-F073636E5BF4}"/>
+    <hyperlink ref="C53" r:id="rId17" xr:uid="{8558404E-3954-405E-8D94-14A8964FAEAA}"/>
+    <hyperlink ref="C54" r:id="rId18" xr:uid="{17AEC1F5-A422-4881-A33F-BFA5666AB2E5}"/>
+    <hyperlink ref="C55" r:id="rId19" xr:uid="{2A106D8F-A5A2-4170-8A03-2E398B932D78}"/>
+    <hyperlink ref="C56" r:id="rId20" xr:uid="{61BF8FE2-865C-4AFC-B1B6-070C4C7EF3FB}"/>
+    <hyperlink ref="C57" r:id="rId21" xr:uid="{DCAFB5DE-B55A-42E1-AFBD-54F0F00BB23B}"/>
+    <hyperlink ref="C58" r:id="rId22" xr:uid="{A5AF0356-299D-4A90-B76E-96B7D59C49AB}"/>
+    <hyperlink ref="C59" r:id="rId23" xr:uid="{BFD6A525-3BB4-400F-9C29-52BA87870FED}"/>
+    <hyperlink ref="C60" r:id="rId24" xr:uid="{C977E909-2ABD-4430-BE40-5584ACBEA71C}"/>
+    <hyperlink ref="C61" r:id="rId25" xr:uid="{52A5BEB6-EF4C-4EA4-A3AA-69647A8CA6C2}"/>
+    <hyperlink ref="C62" r:id="rId26" xr:uid="{C163A9B3-DF64-4930-BA55-F7F67B9A1E2C}"/>
+    <hyperlink ref="C63" r:id="rId27" xr:uid="{9824CC08-0D12-452B-9624-55D79D6A82D2}"/>
+    <hyperlink ref="C64" r:id="rId28" xr:uid="{BCCF4AB3-B018-4AB2-AE8F-3E0A61627009}"/>
+    <hyperlink ref="C65" r:id="rId29" xr:uid="{01F4867D-FEC1-401C-9C2E-E3B3E8C1D25C}"/>
+    <hyperlink ref="C66" r:id="rId30" xr:uid="{BAFE057F-A3B5-4FFB-906F-C80113CF2B54}"/>
+    <hyperlink ref="C67" r:id="rId31" xr:uid="{98E0C10A-923A-4FA7-809F-6A8E15263217}"/>
+    <hyperlink ref="C68" r:id="rId32" xr:uid="{24071383-0AEB-4B7E-B649-FEFE215D7A3B}"/>
+    <hyperlink ref="C69" r:id="rId33" xr:uid="{ED8A3802-A8E0-416E-A40D-3223B70F5334}"/>
+    <hyperlink ref="C70" r:id="rId34" xr:uid="{9688753F-CF74-45BD-A75C-E63824F38D88}"/>
+    <hyperlink ref="C71" r:id="rId35" xr:uid="{EE5742BD-DC2F-45A4-81B1-3DD3889DD98C}"/>
+    <hyperlink ref="C72" r:id="rId36" xr:uid="{56C9E12F-D2D4-4B3A-94C5-780F486D80EC}"/>
+    <hyperlink ref="C73" r:id="rId37" xr:uid="{2FBCA019-C4F1-4244-A4BA-37881524FA26}"/>
+    <hyperlink ref="C74" r:id="rId38" xr:uid="{EFB718AA-7307-4240-AB52-49BF1720B1A4}"/>
+    <hyperlink ref="C75" r:id="rId39" xr:uid="{857357AE-E2DA-4B60-96B0-7EF487F1E7B4}"/>
+    <hyperlink ref="C76" r:id="rId40" xr:uid="{0F63BBD0-0B65-45C3-B856-4764736F0712}"/>
+    <hyperlink ref="C77" r:id="rId41" xr:uid="{5F466FA3-BD13-478F-A9B9-50D7C0DB2E92}"/>
+    <hyperlink ref="C78" r:id="rId42" xr:uid="{8A121D01-BA96-4C89-95DC-E44F64F70D83}"/>
+    <hyperlink ref="C79" r:id="rId43" xr:uid="{DC2C7584-F20E-4217-A2DE-7CD3314E8F94}"/>
+    <hyperlink ref="C80" r:id="rId44" xr:uid="{2F54B8CE-2792-4B32-AF64-53052293DEAF}"/>
+    <hyperlink ref="C81" r:id="rId45" xr:uid="{13DFD242-08C8-457D-9758-275F0DD5829D}"/>
+    <hyperlink ref="C82" r:id="rId46" xr:uid="{10A49EAD-5575-4795-A7F7-762F786F7ED2}"/>
+    <hyperlink ref="C83" r:id="rId47" xr:uid="{19096DF9-9462-4202-B0EA-C25261D35737}"/>
+    <hyperlink ref="C84" r:id="rId48" xr:uid="{35411568-83F1-4C79-90FD-813768B088E6}"/>
+    <hyperlink ref="C85" r:id="rId49" xr:uid="{CE31E75D-5C32-4E5D-8AA0-FE2C63B56FA9}"/>
+    <hyperlink ref="C86" r:id="rId50" xr:uid="{7DC06B62-0B61-4015-83E5-DB7BC7022E26}"/>
+    <hyperlink ref="C87" r:id="rId51" xr:uid="{0EEB3310-CF8B-4797-856E-EAEDBAB19F63}"/>
+    <hyperlink ref="C88" r:id="rId52" xr:uid="{A6043008-280D-4F76-84C4-77CA01E65800}"/>
+    <hyperlink ref="C89" r:id="rId53" xr:uid="{B6836EF6-FC7C-47C2-ADB0-8D64474D02E2}"/>
+    <hyperlink ref="C94" r:id="rId54" xr:uid="{4A04516E-41B4-42DE-A275-DE1CB95E656C}"/>
+    <hyperlink ref="C95" r:id="rId55" xr:uid="{5C748619-A1D6-4434-B13B-6476A1AC24D9}"/>
+    <hyperlink ref="C96" r:id="rId56" xr:uid="{B915BBC5-C92F-4F37-8728-FC1221EF4F2C}"/>
+    <hyperlink ref="C97" r:id="rId57" xr:uid="{CAEFDAA5-6827-4920-AC1D-ACE6333151E7}"/>
+    <hyperlink ref="C98" r:id="rId58" xr:uid="{3EF0F4EC-8D8F-4C3D-9AF5-14BF1AE463A5}"/>
+    <hyperlink ref="C99" r:id="rId59" xr:uid="{5799D6B9-4E73-4D9A-A895-6DA0374F3CC5}"/>
+    <hyperlink ref="C100" r:id="rId60" xr:uid="{87C6C7A1-469B-4223-BED5-B1A110F2E4AB}"/>
+    <hyperlink ref="C101" r:id="rId61" xr:uid="{3F4E306B-B342-460D-859E-F74218DB6509}"/>
+    <hyperlink ref="C102" r:id="rId62" xr:uid="{106B9EEE-DE9E-4E96-AE5E-DC174415ACFD}"/>
+    <hyperlink ref="C103" r:id="rId63" xr:uid="{629FF0C5-A34E-4963-9223-356A731FC658}"/>
+    <hyperlink ref="C104" r:id="rId64" xr:uid="{45023D00-E3BC-4A0D-9116-ECE6322499FD}"/>
+    <hyperlink ref="C105" r:id="rId65" xr:uid="{E3D80627-1389-41FA-94A6-C4E1E3DAC34D}"/>
+    <hyperlink ref="C106" r:id="rId66" xr:uid="{12B0964F-5875-4CFD-BA82-81077F5A1E12}"/>
+    <hyperlink ref="C107" r:id="rId67" xr:uid="{06343719-1723-4EE9-B9BC-E6F7FB6F51A0}"/>
+    <hyperlink ref="C108" r:id="rId68" xr:uid="{E270C63A-9C57-4C78-B95B-5AE02845BFB2}"/>
+    <hyperlink ref="C109" r:id="rId69" xr:uid="{88D7D013-3CD5-4A07-80C4-508550A9D2F5}"/>
+    <hyperlink ref="C110" r:id="rId70" xr:uid="{58D51111-009E-430F-B09C-8DEBDBCA2F8A}"/>
+    <hyperlink ref="C111" r:id="rId71" xr:uid="{CAEE0092-935A-4A75-88DA-8676E6042AFC}"/>
+    <hyperlink ref="C112" r:id="rId72" xr:uid="{2696D053-5D4F-43B9-AD69-F1DE36D431D7}"/>
+    <hyperlink ref="C113" r:id="rId73" xr:uid="{77B778E2-3DB1-411B-B86F-BD0423524EE1}"/>
+    <hyperlink ref="C114" r:id="rId74" xr:uid="{18A71B10-96EB-4AFA-9B9C-6AD0E39E06B8}"/>
+    <hyperlink ref="C115" r:id="rId75" xr:uid="{2FA26F79-6023-4C3A-9798-6E1B7FF698CF}"/>
+    <hyperlink ref="C116" r:id="rId76" xr:uid="{9D5E16A3-E4BD-457A-B648-7EE22711AC6F}"/>
+    <hyperlink ref="C117" r:id="rId77" xr:uid="{48E80E8D-5E44-4159-B6DC-50E6FE45574F}"/>
+    <hyperlink ref="C118" r:id="rId78" xr:uid="{BFF25669-3C6D-4E63-BC83-7F6A3CDC1557}"/>
+    <hyperlink ref="C119" r:id="rId79" xr:uid="{06FC4187-8255-48B3-AE62-99D346B942FB}"/>
+    <hyperlink ref="C120" r:id="rId80" xr:uid="{94017A52-5BE1-4D0A-A314-D159F2C7E66A}"/>
+    <hyperlink ref="C121" r:id="rId81" xr:uid="{784C01E6-887A-42D0-9377-77988E8829AB}"/>
+    <hyperlink ref="C122" r:id="rId82" xr:uid="{3181C0EE-2F79-4FD4-8ABB-B470072B986A}"/>
+    <hyperlink ref="C123" r:id="rId83" xr:uid="{5B6F2AFA-529C-4FD6-B050-E42DBAFC4B7A}"/>
+    <hyperlink ref="C124" r:id="rId84" xr:uid="{31908DAB-5EF1-48A7-AFAA-B933ECF25F5B}"/>
+    <hyperlink ref="C125" r:id="rId85" xr:uid="{533A3517-6878-4FAD-8E0C-1E47D1D075DD}"/>
+    <hyperlink ref="C126" r:id="rId86" xr:uid="{CDCFA94E-D752-4FB2-B9C4-F001143E0833}"/>
+    <hyperlink ref="C127" r:id="rId87" xr:uid="{ACAC6C98-A2AF-4330-8757-C9E598021649}"/>
+    <hyperlink ref="C128" r:id="rId88" xr:uid="{96E1D769-7A38-471C-9E0E-AA0D1E39AC89}"/>
+    <hyperlink ref="C129" r:id="rId89" xr:uid="{795EA255-C041-4A47-AD9D-BDF5088746F5}"/>
+    <hyperlink ref="C130" r:id="rId90" xr:uid="{44FFF42C-8B82-4B12-AAF6-31A3E7F97160}"/>
+    <hyperlink ref="C131" r:id="rId91" xr:uid="{F95234E5-64AD-4A42-9B4E-77DFE8C53707}"/>
+    <hyperlink ref="C132" r:id="rId92" xr:uid="{F147BA28-D449-49F1-9D55-02366E7C5B99}"/>
+    <hyperlink ref="C133" r:id="rId93" xr:uid="{765D2E3C-04EB-4DFD-8667-17C44A5B002E}"/>
+    <hyperlink ref="C134" r:id="rId94" xr:uid="{DA6EEADE-14FD-4FE9-9329-23CE4E3F141E}"/>
+    <hyperlink ref="C135" r:id="rId95" xr:uid="{9CDB85BB-81D8-4242-A8F6-C0C7C197C062}"/>
+    <hyperlink ref="C136" r:id="rId96" xr:uid="{722FDD2C-D6BC-40C1-89E6-CF94A44213A5}"/>
+    <hyperlink ref="C137" r:id="rId97" xr:uid="{D8B85A9F-576E-49D7-9D2D-0984B51778E0}"/>
+    <hyperlink ref="C138" r:id="rId98" xr:uid="{46383F9F-6D63-4FC1-91D1-B64A157A1679}"/>
+    <hyperlink ref="C139" r:id="rId99" xr:uid="{50363FD1-721D-4139-AF35-8E01A8DC4D67}"/>
+    <hyperlink ref="C140" r:id="rId100" xr:uid="{65B6BDF5-0C0D-47D5-87D8-B3AC031E603D}"/>
+    <hyperlink ref="C141" r:id="rId101" xr:uid="{4452966A-B122-40C7-8CC5-2F75C5A111A5}"/>
+    <hyperlink ref="C142" r:id="rId102" xr:uid="{D2744DCC-6727-44CB-92EA-A810837FF550}"/>
+    <hyperlink ref="C143" r:id="rId103" xr:uid="{D8ADBEC6-344A-4F27-ABCE-27E4FAC185F1}"/>
+    <hyperlink ref="C144" r:id="rId104" xr:uid="{A70753ED-2B45-44EC-9D35-E62B9C97114D}"/>
+    <hyperlink ref="C145" r:id="rId105" xr:uid="{D2D696A9-3DD8-4BAA-83DA-A4DE7E786135}"/>
+    <hyperlink ref="C146" r:id="rId106" xr:uid="{10BB03B7-83D0-4F23-A38D-1B26EACDAEAB}"/>
+    <hyperlink ref="C147" r:id="rId107" xr:uid="{9EA029F4-70D9-4E27-A19F-0B41A7539045}"/>
+    <hyperlink ref="C148" r:id="rId108" xr:uid="{8E777138-24AC-4592-8D38-ABE100B28DD1}"/>
+    <hyperlink ref="C149" r:id="rId109" xr:uid="{46EDC6ED-F68C-43B3-BA97-A03571F1A1B4}"/>
+    <hyperlink ref="C150" r:id="rId110" xr:uid="{AED47635-3F12-474D-BE17-77AD9F1FC0B8}"/>
+    <hyperlink ref="C151" r:id="rId111" xr:uid="{DA9F9DDD-CFA4-4F05-8AAE-676A400CF1B6}"/>
+    <hyperlink ref="C152" r:id="rId112" xr:uid="{AB34D932-FD79-45BC-89D3-8AB6809BF38D}"/>
+    <hyperlink ref="C153" r:id="rId113" xr:uid="{53D77819-5051-436E-89A1-66BC6F1DA2A3}"/>
+    <hyperlink ref="C154" r:id="rId114" xr:uid="{57F98434-B4F1-4288-8EC7-D804CF95B192}"/>
+    <hyperlink ref="C155" r:id="rId115" xr:uid="{A148266A-0C88-4AAB-B846-00A08E3C9CE1}"/>
+    <hyperlink ref="C156" r:id="rId116" xr:uid="{CD84791A-4342-412E-A3CC-0205B7C8219F}"/>
+    <hyperlink ref="C157" r:id="rId117" xr:uid="{2CDE7AF3-148D-4593-AD05-FA307D5A4DAF}"/>
+    <hyperlink ref="C19" r:id="rId118" xr:uid="{A4239AAC-DA8C-4BCA-86EF-2F8E2BAFEF92}"/>
+    <hyperlink ref="C20" r:id="rId119" xr:uid="{B4FC5143-ADC9-46C4-A40F-8CFE2ADA6022}"/>
+    <hyperlink ref="C21" r:id="rId120" xr:uid="{258AD1EB-54B8-41D1-B919-3246F5B7913B}"/>
+    <hyperlink ref="C22" r:id="rId121" xr:uid="{975EDD73-B54E-4F4C-9D4C-C07FDD487D2C}"/>
+    <hyperlink ref="C23" r:id="rId122" xr:uid="{FCD683D6-1AA9-4890-91DA-A8A7F0299ACC}"/>
+    <hyperlink ref="C158" r:id="rId123" xr:uid="{9F0D2E08-4C6C-48F1-B94D-FE5C8F774707}"/>
+    <hyperlink ref="C159" r:id="rId124" xr:uid="{C1015783-CF3D-411A-B7C4-78D1C4ACD3D1}"/>
+    <hyperlink ref="C160" r:id="rId125" xr:uid="{A9445000-AD44-4A99-88BD-37F45EFDEB3E}"/>
+    <hyperlink ref="C161" r:id="rId126" xr:uid="{B3DE1004-E92F-4285-B80C-C68289704AE7}"/>
+    <hyperlink ref="C162" r:id="rId127" xr:uid="{F14621F6-B32F-49E0-A1A9-7BE349C1481F}"/>
+    <hyperlink ref="C163" r:id="rId128" xr:uid="{933E5CB7-E443-4210-9544-1C578AF707A7}"/>
+    <hyperlink ref="C92" r:id="rId129" xr:uid="{0BDF9B1E-C918-4035-935D-F39C53585393}"/>
+    <hyperlink ref="C91" r:id="rId130" xr:uid="{A0CC2028-62CA-4DF3-82D7-8EABEFF898CC}"/>
+    <hyperlink ref="C90" r:id="rId131" xr:uid="{FC56EBA4-4460-41AD-83E1-BBCB7D730713}"/>
+    <hyperlink ref="C164" r:id="rId132" xr:uid="{B8981599-A1E5-4917-BFAF-E860A16DFA50}"/>
+    <hyperlink ref="C165" r:id="rId133" xr:uid="{03A02FD6-6B14-4107-BF25-5EBC7392226D}"/>
+    <hyperlink ref="C167" r:id="rId134" xr:uid="{9C936F7E-7B54-4E24-AD3E-0DE781E4D98A}"/>
+    <hyperlink ref="C169" r:id="rId135" xr:uid="{4FF8E2ED-AA7F-4FA9-8174-CE337EA7ECA4}"/>
+    <hyperlink ref="C175" r:id="rId136" xr:uid="{96AA56FF-6783-4F20-B24A-09A8FB8B2863}"/>
+    <hyperlink ref="C170" r:id="rId137" xr:uid="{82EEB600-D7DF-44D0-B5A0-3D33C9975C7B}"/>
+    <hyperlink ref="C171" r:id="rId138" xr:uid="{86E69013-28AA-4A50-90CB-50B5A17FD997}"/>
+    <hyperlink ref="C173" r:id="rId139" xr:uid="{F51685D0-EAF0-4383-82ED-2F6BF90ECA1E}"/>
+    <hyperlink ref="C174" r:id="rId140" xr:uid="{1B3ED722-6076-47C8-AE8D-8837EBFB22FC}"/>
+    <hyperlink ref="C172" r:id="rId141" xr:uid="{1485C343-BB9F-4667-AFE8-AA6310A96290}"/>
+    <hyperlink ref="C24" r:id="rId142" xr:uid="{A3C414C9-4EFE-46C2-A6C6-46113EE2F0C4}"/>
+    <hyperlink ref="C25" r:id="rId143" xr:uid="{7E219732-76F1-4961-831C-D5D643A499CD}"/>
+    <hyperlink ref="C26" r:id="rId144" xr:uid="{347BA52A-40D8-434E-8AAB-BE2CCBFDCF2E}"/>
+    <hyperlink ref="C27" r:id="rId145" xr:uid="{CD18FAAA-B73D-494A-A681-8546DD7110F3}"/>
+    <hyperlink ref="C28" r:id="rId146" xr:uid="{651BFF47-5235-4758-B6CB-D50104520C32}"/>
+    <hyperlink ref="C29" r:id="rId147" xr:uid="{5DA74253-70EB-4352-AC22-E64DF12F5514}"/>
+    <hyperlink ref="C30" r:id="rId148" xr:uid="{AEA6CEBA-7B09-446C-8A4A-5EA3BA241AB6}"/>
+    <hyperlink ref="C31" r:id="rId149" xr:uid="{B80968C1-90C4-4DC9-9EE9-8494D22D1073}"/>
+    <hyperlink ref="C32" r:id="rId150" xr:uid="{3FD27562-4242-4240-B4E4-4E799C254BDB}"/>
+    <hyperlink ref="C33" r:id="rId151" xr:uid="{CF58F490-3B94-41DF-9385-65ABBFBF3655}"/>
+    <hyperlink ref="C34" r:id="rId152" xr:uid="{74DA9202-46B5-4B0E-95B7-EA506B6CA059}"/>
+    <hyperlink ref="C35" r:id="rId153" xr:uid="{36DEE98D-138D-4A03-8736-39C1A078F6CE}"/>
+    <hyperlink ref="C36" r:id="rId154" xr:uid="{02554C98-80D2-4FDB-8B25-459F912F2876}"/>
+    <hyperlink ref="C37" r:id="rId155" xr:uid="{96ACA98E-C117-4BA5-86E7-61EA24899B4F}"/>
+    <hyperlink ref="C38" r:id="rId156" xr:uid="{233889CB-C234-4A59-B8DE-64C602B878E9}"/>
+    <hyperlink ref="C39" r:id="rId157" xr:uid="{BD78B36F-A447-4FC8-8267-5B8967D9C03C}"/>
+    <hyperlink ref="C40" r:id="rId158" xr:uid="{7907ABA4-46BB-49B9-ADA1-2A9DD4F95248}"/>
+    <hyperlink ref="C41" r:id="rId159" xr:uid="{E59DE41E-3C64-4CEC-A186-F7FBA94467C7}"/>
+    <hyperlink ref="C42" r:id="rId160" xr:uid="{63D56F9A-6C37-4E72-845E-98AB2D048D80}"/>
+    <hyperlink ref="C43" r:id="rId161" xr:uid="{C0A8F234-ED38-4905-A483-24B96A0D6447}"/>
+    <hyperlink ref="C44" r:id="rId162" xr:uid="{76DA5596-4C5E-497D-BE07-B576EDA5A122}"/>
+    <hyperlink ref="C45" r:id="rId163" xr:uid="{A2A87B8B-171C-4322-8891-2E4547473E5A}"/>
+    <hyperlink ref="C46" r:id="rId164" xr:uid="{E2717C22-58A3-46C6-8D95-1477C41285AD}"/>
+    <hyperlink ref="C47" r:id="rId165" xr:uid="{A9F58AC3-A097-4895-9354-0A0B73318A68}"/>
+    <hyperlink ref="C176" r:id="rId166" xr:uid="{CC658402-BCE1-4E1E-93D9-EEB3FB8B4478}"/>
+    <hyperlink ref="C177" r:id="rId167" xr:uid="{F078D15E-AC23-4299-B6A4-4E12E53A32D8}"/>
+    <hyperlink ref="C178" r:id="rId168" xr:uid="{8503940E-AA35-4194-834E-6527ADB9AE66}"/>
+    <hyperlink ref="C179" r:id="rId169" xr:uid="{5D76ECC6-1FED-42EA-902A-7D8AC6865058}"/>
+    <hyperlink ref="C180" r:id="rId170" xr:uid="{943E9EFF-1ADA-4844-A99D-C00DDA239969}"/>
+    <hyperlink ref="C181" r:id="rId171" xr:uid="{A783E7E3-C1A8-464C-B344-A7C8062DD1C5}"/>
+    <hyperlink ref="C182" r:id="rId172" xr:uid="{B3B0F7CD-E7F7-446F-90BA-FD6BC50A7F8F}"/>
+    <hyperlink ref="C183" r:id="rId173" xr:uid="{DEC9A00B-8531-48C1-A020-ABE6A8ECFDFF}"/>
+    <hyperlink ref="C184" r:id="rId174" xr:uid="{C095CDB8-FC89-4B44-8CD7-F63B160E4595}"/>
+    <hyperlink ref="C185" r:id="rId175" xr:uid="{1A3CC02D-0CA0-4445-8B6C-633AD61FDD38}"/>
+    <hyperlink ref="C186" r:id="rId176" xr:uid="{D56CFA64-CB6B-4CF0-9EB8-057374537EC0}"/>
+    <hyperlink ref="C187" r:id="rId177" xr:uid="{BF28EE6E-97C7-4867-99BD-0E5EF7A6BD8B}"/>
+    <hyperlink ref="C188" r:id="rId178" xr:uid="{95D02AFB-DBB6-4A3B-AE0C-D2AA56EE6D1B}"/>
+    <hyperlink ref="C189" r:id="rId179" xr:uid="{1D492BC7-62BC-4CB0-BF97-8B794025F153}"/>
+    <hyperlink ref="C190" r:id="rId180" xr:uid="{9F42F418-CD09-4371-88D2-EF588394A464}"/>
+    <hyperlink ref="C191" r:id="rId181" xr:uid="{D3049D65-4998-420E-ABA6-E58688C3A143}"/>
+    <hyperlink ref="C192" r:id="rId182" xr:uid="{08462DB5-46A6-42B5-9FD9-3196716C798E}"/>
+    <hyperlink ref="C193" r:id="rId183" xr:uid="{FBEB0256-EF6B-4296-8A4F-372F07610998}"/>
+    <hyperlink ref="C194" r:id="rId184" xr:uid="{262CC23F-5133-4489-A219-4370E2A4AC3C}"/>
+    <hyperlink ref="C195" r:id="rId185" xr:uid="{16495855-8997-414B-86DB-4B29E56B9138}"/>
+    <hyperlink ref="C196" r:id="rId186" xr:uid="{69E9483E-0797-4716-AA9B-99B55225F765}"/>
+    <hyperlink ref="C197" r:id="rId187" xr:uid="{B5AE5F6D-6A71-4B43-BB43-082F5378FAC1}"/>
+    <hyperlink ref="C198" r:id="rId188" xr:uid="{8FE2002B-2D69-46A4-B734-31F1283DE721}"/>
+    <hyperlink ref="C199" r:id="rId189" xr:uid="{E7766D83-F98B-40B6-97C2-FB06745B2736}"/>
+    <hyperlink ref="C200" r:id="rId190" xr:uid="{BEDC43C7-C652-4A11-B299-7C4CF34ABDEC}"/>
+    <hyperlink ref="C201" r:id="rId191" xr:uid="{EE1ED3CE-F70C-4F2E-8EF2-A5E0EE43EF9A}"/>
+    <hyperlink ref="C202" r:id="rId192" xr:uid="{83E4B589-5516-40B0-8D2B-960787B672E2}"/>
+    <hyperlink ref="C4" r:id="rId193" xr:uid="{5C8A6802-869A-4F2C-BE19-2A9B506D8132}"/>
+    <hyperlink ref="C6" r:id="rId194" xr:uid="{83CA4C35-3785-4726-A925-CAB991AF134F}"/>
+    <hyperlink ref="C13" r:id="rId195" xr:uid="{BBDA59F4-0779-4C8A-8425-EDD1BFE8A445}"/>
+    <hyperlink ref="C14" r:id="rId196" xr:uid="{6F11E28B-DE67-4690-A2A2-932304A5F1EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
